--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="490">
   <si>
     <t>id</t>
   </si>
@@ -1950,6 +1950,299 @@
   </si>
   <si>
     <t>Sat Dec 12 18:33:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  hari Jumat, 18 Desember 2020 pukul 08.00-10.30 WIB. Dilanjutkan dengan  Main-Main Serius pukul 10.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/WOTP4oTTVS</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 15:00:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mengukasi perubahan prilaku 3M untuk tetap menjaga kesehatan dalam aktivitas sehari-hari. 
+#edukasiperubahanprilaku 
+#belajardarirumah https://t.co/8QaL7JZ0Vp</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 14:07:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mengidukasi tetap menjaga prilaku sehat dan tetap mematuhi protokol kesehatan. 
+#edukasiperubahanprilaku 
+#belajardarirumah https://t.co/AoW0blXQlg</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 14:06:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pengumuman! Pengumuman!
+Bagi peserta KIGP Jawara Gercep dan KIGP Smart Kalimantan, ada pengumuman bagi yang lolos ke semifinal. 
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #KIGPSmartKalimantan #KIGPKalimantan #KIGPJawaraGercep #KIGPJabar https://t.co/RtoVF1b58b</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 14:02:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Stop Pungli!
+Awasi dan laporkan melalui SMS ke nomor 1193 atau Call center 193 jika menemukan pungli di sekitar
+#SaberPungli
+#StopPungli
+#IndonesiaBersihPungli
+#MerdekaBelajar
+#BelajarDaring
+#BelajarDariRumah
+#KemdikbudRI
+#PusdatinKemendikbud https://t.co/sNCaAJLEoV</t>
+  </si>
+  <si>
+    <t>pdkclp</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 07:38:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Lihat di channel msaefulislam. 
+https://t.co/OKrj95QPn5 
+Atau klik link berikut: 
+https://t.co/6Rk2qC0o4l 
+Semoga bermanfaat 🤲
+#belajarkomputer 
+#belajardarirumah 
+#belajarsendiri 
+#otodidak https://t.co/wt32JTSmJR</t>
+  </si>
+  <si>
+    <t>msaefulislam</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 07:06:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH" 
+📆 : Kamis, 17 Desember 2020
+🕗 : 08.00-11.00 WIB 
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Film Nasional : Tanah Cita-Cita pukul 21.30 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/ELCbXtJuIZ</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 01:19:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH" 
+📆 : Kamis, 17 Desember 2020
+🕗 : 08.00-11.00 WIB 
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Tanah Cita-Cita pukul 21.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/k4azVAnhCc</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 00:34:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah siap belajar kembali hari ini? Jangan lupa persiapkan alat tulis dan buku catatanmu, ya. Yuk, simak jadwal acara #BelajardariRumah di @TVRINasional untuk hari Kamis, 17 Desember 2020.
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/5yZ15xFKj0</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 00:00:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>#GenPrestasi mungkin sudah tahu apa itu ASEAN, tetapi tahukah mengapa ASEAN didirikan?
+#IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #IPSSMA #ASEAN https://t.co/LH3fgm0FTh</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 13:52:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jumat besok, akhir dari semester pertama 2020/21.
+#BDR #BelajarDariRumah 🏡 #TidakTerasa #PandemiBelumBerakhir #BanyakHestek #BanyakRezeki #BukanTumbenBicaraFPL</t>
+  </si>
+  <si>
+    <t>yudayuds</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 11:25:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Alhamdulillah kita semua sudah banyak belajar dan berhasil beradaptasi pada perubahan—yang tentu banyak tidak nyamannya. Tetapi, insyaallah semua ini untuk kita dapat berkembang lebih baik lagi. Aamiin💙
+#PrestasiGlobal
+#BelajarDariRumah
+#dirumahaja</t>
+  </si>
+  <si>
+    <t>PrestasiGlobal1</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 07:52:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Semester satu akan segera berakhir, setelah menjalani PAS, sekarang tinggal menunggu hasil rapor. Semoga semua hasilnya memuaskan yaaa!⁣
+#PrestasiGlobal
+#BelajarDariRumah https://t.co/OtEFi6Uasr</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 07:52:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Belajar dari Rumah TVRI Rabu 16 Desember 2020 untuk SD Kelas 1-3, Kelas 4 5 6 SMP dan SMA
+#belajardarirumah #bdrtvri #belajardarirumahtvri #bdr #rabu 
+ https://t.co/LIhrStfvpu</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 01:28:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Tetap semangat belajar dan beraktivitas di hari Rabu ini, ya! Yuk, simak jadwal acara #BelajardariRumah di @TVRINasional untuk hari ini! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/LgeppLVhfn</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 00:37:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH" 
+📆 : Rabu, 16 Desember 2020
+🕗 : 08.00-11.00 WIB 
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Pekan Kebudayaan Nasional pukul 21.30 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/i7mQKd4102</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 21:48:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH" 
+📆 : Rabu, 16 Desember 2020
+🕗 : 08.00-11.00 WIB 
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Pekan Kebudayaan Nasional pukul 21.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/5cagPTHzEr</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 16:47:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tari Bali Lombok
+#LISA 
+#BLACKPINK 
+#JISOO 
+Belajar tari Bali Lombok
+#Dance 
+#bali
+#Lombok 
+#BelajarDariRumah 
+#Anak 
+#Viral 
+https://t.co/O0VdlEveXu</t>
+  </si>
+  <si>
+    <t>sing_kapur</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 16:42:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tari Bali Lombok popular
+#tari 
+#Bali
+#Lombok 
+#POPULARVOTE 
+#Anak 
+#Analytics 
+https://t.co/O0VdlEveXu
+Tari Bali Lombok popular
+#BelajarDariRumah</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 16:38:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Cara menggunakan aplikasi SD Maid untuk membersihkan file sampah di Android agar tidak lemot.
+https://t.co/oLEK3u5LXS
+#Android #SDMaid #CleanerAndroid #Smartphone #GooglePlay #BelajarDariRumah #DirumahAja #DirumahSaja #WorkFromHome #NewNormal #Download #JagaJarak #onlinelearning https://t.co/jPkabbYTQ7</t>
+  </si>
+  <si>
+    <t>Sujana_AK</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 08:12:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>semangat buat kalian semua, apalagi buat anak akuntansi yang setiap hari bertemu dengan angka😂
+#semangat 
+#anakakuntansi 
+#belajardarirumah</t>
+  </si>
+  <si>
+    <t>agtn_rara</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 04:17:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>pakai https://t.co/1rIQ8ab0xT. Bisa terhubung dengan Zoom, Google Meet, dan Youtube Live Streaming.💻
+#BelajarDariRumah 
+#fingerspot https://t.co/BcEvk0Eq2D</t>
+  </si>
+  <si>
+    <t>Bambang90500845</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:49:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH" 
+📆 : Selasa, 15 Desember 2020
+🕗 : 08.00-11.00 WIB 
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Pekan Kebudayaan Nasional pukul 21.30 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/rdXRjMDjiF</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 02:55:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Another soft skill yang didapet si ABeGe selama #belajardarirumah 😃 https://t.co/NIfjqL8ErC</t>
+  </si>
+  <si>
+    <t>parenting_id</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 01:00:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Yuk, siap-siap untuk belajar kembali! Berikut jadwal acara #BelajardariRumah di @TVRINasional untuk hari Selasa, 15 Desember 2020.
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/1V9bvpyLcm</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 00:01:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH" 
+📆 : Selasa, 15 Desember 2020
+🕗 : 08.00-11.00 WIB 
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Pekan Kebudayaan Nasional pukul 21.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/RaUakS3Zh8</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 15:14:25 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -2314,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K191" sqref="K191"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K222" sqref="K222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,6 +5345,440 @@
         <v>363</v>
       </c>
     </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1.3395863236324191E+18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>429</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1.339573048576373E+18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>431</v>
+      </c>
+      <c r="C197" t="s">
+        <v>394</v>
+      </c>
+      <c r="D197" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1.3395726969678321E+18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>433</v>
+      </c>
+      <c r="C198" t="s">
+        <v>394</v>
+      </c>
+      <c r="D198" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1.339571627894292E+18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>435</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1.3394749130532129E+18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>437</v>
+      </c>
+      <c r="C200" t="s">
+        <v>438</v>
+      </c>
+      <c r="D200" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1.339467043247063E+18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>440</v>
+      </c>
+      <c r="C201" t="s">
+        <v>441</v>
+      </c>
+      <c r="D201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1.339379713622516E+18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>443</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1.3393683934308559E+18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>445</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1.3393597895543601E+18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>447</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1.3392067071304991E+18</v>
+      </c>
+      <c r="B205" t="s">
+        <v>449</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1.3391696838119301E+18</v>
+      </c>
+      <c r="B206" t="s">
+        <v>451</v>
+      </c>
+      <c r="C206" t="s">
+        <v>452</v>
+      </c>
+      <c r="D206" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1.339116269480514E+18</v>
+      </c>
+      <c r="B207" t="s">
+        <v>454</v>
+      </c>
+      <c r="C207" t="s">
+        <v>455</v>
+      </c>
+      <c r="D207" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1.3391162523006239E+18</v>
+      </c>
+      <c r="B208" t="s">
+        <v>457</v>
+      </c>
+      <c r="C208" t="s">
+        <v>455</v>
+      </c>
+      <c r="D208" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1.3390195118196941E+18</v>
+      </c>
+      <c r="B209" t="s">
+        <v>459</v>
+      </c>
+      <c r="C209" t="s">
+        <v>267</v>
+      </c>
+      <c r="D209" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1.3390067177706171E+18</v>
+      </c>
+      <c r="B210" t="s">
+        <v>461</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1.3389642751093189E+18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>463</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1.3388883951336041E+18</v>
+      </c>
+      <c r="B212" t="s">
+        <v>465</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1.3388872474000919E+18</v>
+      </c>
+      <c r="B213" t="s">
+        <v>467</v>
+      </c>
+      <c r="C213" t="s">
+        <v>468</v>
+      </c>
+      <c r="D213" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1.338886093672862E+18</v>
+      </c>
+      <c r="B214" t="s">
+        <v>470</v>
+      </c>
+      <c r="C214" t="s">
+        <v>468</v>
+      </c>
+      <c r="D214" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1.33875887999214E+18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>472</v>
+      </c>
+      <c r="C215" t="s">
+        <v>473</v>
+      </c>
+      <c r="D215" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1.3386997056188621E+18</v>
+      </c>
+      <c r="B216" t="s">
+        <v>475</v>
+      </c>
+      <c r="C216" t="s">
+        <v>476</v>
+      </c>
+      <c r="D216" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1.3386926569903391E+18</v>
+      </c>
+      <c r="B217" t="s">
+        <v>478</v>
+      </c>
+      <c r="C217" t="s">
+        <v>479</v>
+      </c>
+      <c r="D217" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1.338679156280738E+18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>481</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1.338650211749663E+18</v>
+      </c>
+      <c r="B219" t="s">
+        <v>483</v>
+      </c>
+      <c r="C219" t="s">
+        <v>484</v>
+      </c>
+      <c r="D219" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1.3386352925137469E+18</v>
+      </c>
+      <c r="B220" t="s">
+        <v>486</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1.338502611331211E+18</v>
+      </c>
+      <c r="B221" t="s">
+        <v>488</v>
+      </c>
+      <c r="C221" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1.338415674335478E+18</v>
+      </c>
+      <c r="B222" t="s">
+        <v>393</v>
+      </c>
+      <c r="C222" t="s">
+        <v>394</v>
+      </c>
+      <c r="D222" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1.3383853764030259E+18</v>
+      </c>
+      <c r="B223" t="s">
+        <v>396</v>
+      </c>
+      <c r="C223" t="s">
+        <v>23</v>
+      </c>
+      <c r="D223" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1.338304450864288E+18</v>
+      </c>
+      <c r="B224" t="s">
+        <v>398</v>
+      </c>
+      <c r="C224" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1.3382969010751491E+18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>400</v>
+      </c>
+      <c r="C225" t="s">
+        <v>26</v>
+      </c>
+      <c r="D225" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1.3382963195808809E+18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>402</v>
+      </c>
+      <c r="C226" t="s">
+        <v>26</v>
+      </c>
+      <c r="D226" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="540">
   <si>
     <t>id</t>
   </si>
@@ -2243,6 +2243,220 @@
   </si>
   <si>
     <t>Mon Dec 14 15:14:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Setelah mengadakan semifinal dan final pada 19-20 Desember 2020 kemarin, para pemenang KIGP Jawara Gercep dan KIGP Smart Kalimantan sudah didapatkan!
+#IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #KIGPSmartKalimantan #KIGPKalimantan #KIGPJawaraGercep #KIGPJabar #TryOut https://t.co/NDWGfkO5lV</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 13:58:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dalam kegiatan ini dilakukan juga pemberian penghargaan bagi pegawai yang berprestasi berdasarkan kategori yang sudah ditetapkan.
+#MerdekaBelajar 
+#BelajardariRumah 
+#BersamaHadapiKorona
+#BangkituntukIndonesiaMaju</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 08:41:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yukk yang pengen bimbel tapi masih belum berani atau dapat ijin ortu untuk keluar rumah Program Bimbel Online dari Ganesha Operation solusi terbaik untuk semua tingkat kelas.. yukk buruan daftar #bimbelonline #belajardarirumah https://t.co/xm2Ez5jRt4</t>
+  </si>
+  <si>
+    <t>shinykt_</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 07:17:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program Belajar dari Rumah di TVRI Minggu Ketiga Puluh Tujuh.
+#unggahulang #belajardarirumah #liburandirumah
+#kemdikbud #lpmpkepri #kawanlpmpkepri https://t.co/IPIZuW4nAU</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 06:59:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ingin bergabung di kelas reguler intensif?
+Yuk, langsung hubungi kami via DM atau WA ya untuk membuat appointment online pre-bacic test-nya. 🥰
+#KelasBahasaKorea #KursusBahasaKorea #LesBahasaKorea #KoreanCourse #BelajarDariRumah https://t.co/pXVCzjWL2S</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>yaitu Dra. Yanti Riswara, M.Hum. (Kantor Bahasa Provinsi Bengkulu), Drs. Agus Joko Purwadi, M.Pd. (Universitas Bengkulu), dan Rumasi Pasaribu, S.Pd. (SMPN 16 Kota Bengkulu).
+#MerdekaBelajar 
+#BelajardariRumah 
+#BersamaHadapiKorona
+#BangkituntukIndonesiaMaju</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 03:56:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Tetap semangat dan tetap jaga kesehatan, ya, di pekan yang baru ini. Yuk, simak jadwal acara #BelajardariRumah di @TVRINasional untuk hari Senin, 21 Desember 2020! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/BmyXmtncCk</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 00:10:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 4 Kelas 3 Halaman 118 Sampai 123, Buku Tematik: Aku Ingin Lingkungan Bersih
+#KunciJawaban #BukuTematik #BelajardariRumah #BelajardiRumah 
+ https://t.co/otFvP2gABN via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 21:44:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>#GenPrestasi pernah dengar tentang Duta Rumah Pelajar?
+Salah satu manfaatnya adalah meningkatkan kemampuan mengimplementasikan teknologi ke dalam proses pembelajaran, terutama di masa pandemi #Covid19
+#IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #DutaRumahBelajar https://t.co/fCWywCD2iC</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 09:59:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>STOP PUNGUTAN LIAR (PUNGLI) DISEKITAR KITA.
+#SMPMariaImmaculataCilacap
+#SMPCilacap
+#OsisMarita
+#SaberPungli
+#StopPungli
+#IndonesiaBersihPungli
+#MerdekaBelajar
+#BelajarDaring
+#BelajarDariRumah
+#KemdikbudRI
+#PusdatinKemendikbud https://t.co/v0jouTZJF3</t>
+  </si>
+  <si>
+    <t>SMPMaria</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 02:48:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah berolahraga pagi ini? Tayangan-tayangan #BelajardariRumah di @TVRINasional sudah siap hadir untuk menemani akhir pekan #SahabatDikbud. Selamat menyaksikan! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/d6xWJ1jbmd</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 00:13:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  hari Minggu, 20 Desember 2020 pukul 08.00-11.00 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/0sCbUSbqL4</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 21:23:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  hari Minggu, 20 Desember 2020 pukul 08.00-11.00 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/unxFbkk9Ts</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 15:30:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tantangan coba ada yang berani melakukan salah satu kebiasaan di atas dalam waktu dekat?
+#kebiasaan #orangsukses #pengembangandiri #softskills #belajardarirumah #sekolahonline #lesprivatsma #lesprivatsmp #lesprivatsd #lesprivatmalang #lesprivatlamongan #malang #infolamongan</t>
+  </si>
+  <si>
+    <t>mentornesia</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 12:22:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pandemi #Covid19 membuat #GenPrestasi terpaksa harus #dirumahaja dan belajar lebih sabar lagi. Namun, siapa yang tidak bosan jika berbulan-bulan hanya di rumah?
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #SabtuSeru #Puzzle #MainPuzzle https://t.co/8zYHFVSZIA</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 10:02:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Selamat menikmati akhir pekan bersama keluarga. Yuk, nikmati juga beragam tayangan #BelajardariRumah di @TVRINasional hari ini!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/2xgPU2Nb0H</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 00:03:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  hari Sabtu, 19 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan dengan  Konser Tur Nasional 2020 Rapsodia Nusantara dan Kejayaan Nusantara pukul 21.30 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/SIDkOSjqNo</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 19:28:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  hari Sabtu, 19 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan dengan  Konser Tur Nasional 2020 Rapsodia Nusantara dan Kejayaan Nusantara pukul 21..30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/tZ3caILjyh</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 16:00:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat Hari Migran Internasional, #GenPrestasi !
+Secara definisi, buruh migran terbagi menjadi dua jenis yaitu buruh migran eksternal dan internal. 
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #InternationalMigrantsDay https://t.co/zRaEyVh1jV</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 09:52:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Indonesia memiliki sejarah yang panjang. Sebelum menjadi negara modern, pemerintahan yg kini bernama Indonesia ini adalah kerajaan. Kerajaan-kerajaan tersebut telah ada sejak berabad-abad yg lalu.
+Buku dapat diunduh di
+https://t.co/vmsGwDFwcL
+#MerdekaBelajar
+#BelajarDariRumah https://t.co/4ATqJ7PCDe</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 01:06:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  hari Jumat, 18 Desember 2020 pukul 08.00-10.30 WIB. Dilanjutkan dengan  Main-Main Serius pukul 10.30 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/41Yxcrzvry</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 00:19:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Mari jelang akhir pekan bersama berbagai tayangan menarik #BelajardariRumah di @TVRINasional. Berikut jadwal acara untuk hari Jumat, 18 Desember 2020.
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/enGEWYQnc7</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 00:00:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ingat, jika kamu terluka karena seseorang maka belajarlah dari aspal. Diam saat diinjak tapi bisa melukai tanpa harus bergerak. 
+#membunuhtanpamenyentuh
+#diamdiammenghanyutkan
+#daring #belajardarirumah https://t.co/eHVf125Cva</t>
+  </si>
+  <si>
+    <t>ArdiRivanto99</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 23:56:00 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -2607,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K222" sqref="K222"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J264" sqref="J264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5779,6 +5993,454 @@
         <v>403</v>
       </c>
     </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1.341020272099348E+18</v>
+      </c>
+      <c r="B227" t="s">
+        <v>490</v>
+      </c>
+      <c r="C227" t="s">
+        <v>17</v>
+      </c>
+      <c r="D227" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1.34094044096349E+18</v>
+      </c>
+      <c r="B228" t="s">
+        <v>492</v>
+      </c>
+      <c r="C228" t="s">
+        <v>234</v>
+      </c>
+      <c r="D228" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1.3409191795960671E+18</v>
+      </c>
+      <c r="B229" t="s">
+        <v>494</v>
+      </c>
+      <c r="C229" t="s">
+        <v>495</v>
+      </c>
+      <c r="D229" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1.3409148699822689E+18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>497</v>
+      </c>
+      <c r="C230" t="s">
+        <v>23</v>
+      </c>
+      <c r="D230" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1.340869603359134E+18</v>
+      </c>
+      <c r="B231" t="s">
+        <v>499</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1.340868689122402E+18</v>
+      </c>
+      <c r="B232" t="s">
+        <v>501</v>
+      </c>
+      <c r="C232" t="s">
+        <v>234</v>
+      </c>
+      <c r="D232" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1.3408119241376361E+18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>503</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1.340775229719658E+18</v>
+      </c>
+      <c r="B234" t="s">
+        <v>505</v>
+      </c>
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1.3405975991878451E+18</v>
+      </c>
+      <c r="B235" t="s">
+        <v>507</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1.3404892604539251E+18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>509</v>
+      </c>
+      <c r="C236" t="s">
+        <v>510</v>
+      </c>
+      <c r="D236" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1.3404502055445629E+18</v>
+      </c>
+      <c r="B237" t="s">
+        <v>512</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1.340407331310293E+18</v>
+      </c>
+      <c r="B238" t="s">
+        <v>514</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1.3403186799850911E+18</v>
+      </c>
+      <c r="B239" t="s">
+        <v>516</v>
+      </c>
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1.3402712487612211E+18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>518</v>
+      </c>
+      <c r="C240" t="s">
+        <v>519</v>
+      </c>
+      <c r="D240" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1.340235954729099E+18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>521</v>
+      </c>
+      <c r="C241" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1.3400852898935191E+18</v>
+      </c>
+      <c r="B242" t="s">
+        <v>523</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1.340016119050998E+18</v>
+      </c>
+      <c r="B243" t="s">
+        <v>525</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1.3399637887543501E+18</v>
+      </c>
+      <c r="B244" t="s">
+        <v>527</v>
+      </c>
+      <c r="C244" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1.339871024054092E+18</v>
+      </c>
+      <c r="B245" t="s">
+        <v>529</v>
+      </c>
+      <c r="C245" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1.3397387706024799E+18</v>
+      </c>
+      <c r="B246" t="s">
+        <v>531</v>
+      </c>
+      <c r="C246" t="s">
+        <v>365</v>
+      </c>
+      <c r="D246" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1.3397270200249431E+18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>533</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1.3397221579164511E+18</v>
+      </c>
+      <c r="B248" t="s">
+        <v>535</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1.3397210381086111E+18</v>
+      </c>
+      <c r="B249" t="s">
+        <v>537</v>
+      </c>
+      <c r="C249" t="s">
+        <v>538</v>
+      </c>
+      <c r="D249" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1.3395863236324191E+18</v>
+      </c>
+      <c r="B250" t="s">
+        <v>429</v>
+      </c>
+      <c r="C250" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1.339573048576373E+18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>431</v>
+      </c>
+      <c r="C251" t="s">
+        <v>394</v>
+      </c>
+      <c r="D251" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1.3395726969678321E+18</v>
+      </c>
+      <c r="B252" t="s">
+        <v>433</v>
+      </c>
+      <c r="C252" t="s">
+        <v>394</v>
+      </c>
+      <c r="D252" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1.339571627894292E+18</v>
+      </c>
+      <c r="B253" t="s">
+        <v>435</v>
+      </c>
+      <c r="C253" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1.3394749130532129E+18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>437</v>
+      </c>
+      <c r="C254" t="s">
+        <v>438</v>
+      </c>
+      <c r="D254" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1.339467043247063E+18</v>
+      </c>
+      <c r="B255" t="s">
+        <v>440</v>
+      </c>
+      <c r="C255" t="s">
+        <v>441</v>
+      </c>
+      <c r="D255" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1.339379713622516E+18</v>
+      </c>
+      <c r="B256" t="s">
+        <v>443</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1.3393683934308559E+18</v>
+      </c>
+      <c r="B257" t="s">
+        <v>445</v>
+      </c>
+      <c r="C257" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1.3393597895543601E+18</v>
+      </c>
+      <c r="B258" t="s">
+        <v>447</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" t="s">
+        <v>448</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="572">
   <si>
     <t>id</t>
   </si>
@@ -2457,6 +2457,138 @@
   </si>
   <si>
     <t>Thu Dec 17 23:56:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kondisi pandemi Covid-19 ini membuat kegiatan belajar sekolah terpaksa harus dilakukan online di rumah, padahal masih banyak guru &amp;amp; siswa yg belum memiliki gawai untuk belajar online. Untuk itulah program Garuda diluncurkan... #bantuan #BelajarDariRumah https://t.co/LUqG2V5nQ5</t>
+  </si>
+  <si>
+    <t>AyoGerakBareng</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 13:50:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Beragam tayangan #BelajardariRumah di @TVRINasional siap hadir menjadi pilihan untuk menemani #SahabatDikbud di hari libur ini. Yuk, simak jadwal untuk hari Jumat, 25 Desember 2020! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/lcP4j4rYex</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 00:03:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH" Hari Jumat, 25 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan dengan  Main-Main Serius pukul 10.30 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/uFo9xyOnzo</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 20:37:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH" Hari Jumat, 25 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan dengan  Main-Main Serius pukul 10.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/nsJI5jSXcM</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 17:41:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Meskipun sekarang sudah mulai liburan, jangan sampai kita lupa hari ya #GenPrestasi !
+Tebak-tebakan yuk! Ada yang tahu jawaban dari pertanyaan yang ada di gambar?
+#IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #KamisKuis #MenghitungHari https://t.co/J736qxj8pP</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 12:28:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Yuk, isi liburanmu dengan aktivitas yang menyenangkan #dirumahsaja! Salah satunya, dengan menonton beragam tayangan menarik #BelajardariRumah di @TVRINasional. Berikut jadwal acaranya. 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/lueuLrFOUS</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 23:31:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Kamis, 24 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan Majapahit The Birth Of Nusantara Kelana Budaya pukul 21.30 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/hfmYP0IF44</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 22:11:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Kamis, 24 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan Majapahit The Birth Of Nusantara Kelana Budaya pukul 21.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/oFiwsMyk8S</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 16:31:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dalam bahasa Inggris, #GenPrestasi biasanya akan mempelajari pronouns dalam grammar. Apa itu Pronouns?
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #BahasaInggrisSMA #Pronouns https://t.co/1rsqfJ8MKk</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 12:28:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Rabu, 23 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan Panggung Akhir Sekolah Ragam Indonesia pukul 21.30 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/vwX7YjBbkU</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 00:04:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Jangan lupa sarapan untuk memulai hari, ya! Tayangan-tayangan #BelajardariRumah di @TVRINasional siap hadir untuk menemani waktu belajar #SahabatDikbud. Yuk, simak jadwalnya! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/gR0uWajJXf</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 23:30:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Rabu, 23 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan Panggung Akhir Sekolah Ragam Indonesia pukul 21.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/t09kry5tqt</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 16:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Baca postingannya di web blog Catatan IzRuYan
+https://t.co/n1Smew0E6I
+#IzRuWeb #CatatanIzRuYan #SuaraHatiAnak #BelajardiRumah #BelajardariRumah #Sedih #Susah #Sulit #Cerita #CeritaSedih #CatatanSedih #Curhat #CurhatanAnakSekolah https://t.co/TinaF9ZkPg</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:34:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terima kasih untuk setiap pelukan, motivasi, dan cinta yang telah kau berikan padaku. 
+Selamat Hari Ibu
+madaniaschool #earlyyears #ibworldschool #belajardarirumah #hariibu #paudmengubahdunia https://t.co/i74qrbl5Ma</t>
+  </si>
+  <si>
+    <t>tkmadaniayasmin</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 01:41:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah siap belajar kembali hari ini? Jangan lupa siapkan catatanmu, ya. Yuk, simak jadwal acara #BelajardariRumah di @TVRINasional untuk hari Selasa, 22 Desember 2020! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/RcMJb8rIYW</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 23:30:43 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -2821,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J264" sqref="J264"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I275" sqref="I275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6441,6 +6573,314 @@
         <v>448</v>
       </c>
     </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1.342467637910114E+18</v>
+      </c>
+      <c r="B259" t="s">
+        <v>540</v>
+      </c>
+      <c r="C259" t="s">
+        <v>541</v>
+      </c>
+      <c r="D259" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1.342259705075266E+18</v>
+      </c>
+      <c r="B260" t="s">
+        <v>543</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1.3422078081297979E+18</v>
+      </c>
+      <c r="B261" t="s">
+        <v>545</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1.342163513901343E+18</v>
+      </c>
+      <c r="B262" t="s">
+        <v>547</v>
+      </c>
+      <c r="C262" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1.3420848396215749E+18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>549</v>
+      </c>
+      <c r="C263" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1.3418891005849521E+18</v>
+      </c>
+      <c r="B264" t="s">
+        <v>551</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1.3418689778577779E+18</v>
+      </c>
+      <c r="B265" t="s">
+        <v>553</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1.3417836187843789E+18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>555</v>
+      </c>
+      <c r="C266" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1.34172235418386E+18</v>
+      </c>
+      <c r="B267" t="s">
+        <v>557</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1.3415351941095511E+18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>559</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1.341526453695906E+18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>561</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1.3414131873510359E+18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>563</v>
+      </c>
+      <c r="C270" t="s">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1.3412255743757271E+18</v>
+      </c>
+      <c r="B271" t="s">
+        <v>565</v>
+      </c>
+      <c r="C271" t="s">
+        <v>60</v>
+      </c>
+      <c r="D271" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1.341197160319169E+18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>567</v>
+      </c>
+      <c r="C272" t="s">
+        <v>568</v>
+      </c>
+      <c r="D272" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1.3411642269586509E+18</v>
+      </c>
+      <c r="B273" t="s">
+        <v>570</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1.341020272099348E+18</v>
+      </c>
+      <c r="B274" t="s">
+        <v>490</v>
+      </c>
+      <c r="C274" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1.34094044096349E+18</v>
+      </c>
+      <c r="B275" t="s">
+        <v>492</v>
+      </c>
+      <c r="C275" t="s">
+        <v>234</v>
+      </c>
+      <c r="D275" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1.3409191795960671E+18</v>
+      </c>
+      <c r="B276" t="s">
+        <v>494</v>
+      </c>
+      <c r="C276" t="s">
+        <v>495</v>
+      </c>
+      <c r="D276" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1.3409148699822689E+18</v>
+      </c>
+      <c r="B277" t="s">
+        <v>497</v>
+      </c>
+      <c r="C277" t="s">
+        <v>23</v>
+      </c>
+      <c r="D277" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1.340869603359134E+18</v>
+      </c>
+      <c r="B278" t="s">
+        <v>499</v>
+      </c>
+      <c r="C278" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1.340868689122402E+18</v>
+      </c>
+      <c r="B279" t="s">
+        <v>501</v>
+      </c>
+      <c r="C279" t="s">
+        <v>234</v>
+      </c>
+      <c r="D279" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1.3408119241376361E+18</v>
+      </c>
+      <c r="B280" t="s">
+        <v>503</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="588">
   <si>
     <t>id</t>
   </si>
@@ -2589,6 +2589,73 @@
   </si>
   <si>
     <t>Mon Dec 21 23:30:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tahun 2020 akan segera berakhir. #GenPrestasi punya resolusi yang sudah tercapai di tahun ini? Atau malah tertunda karena pandemi?
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarDariRumah #dirumahaja #Resolusi2020 #NewYearResolution https://t.co/9JGnMO6PGt</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 12:16:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah berolahraga pagi ini? Tayangan-tayangan menarik #BelajardariRumah di @TVRINasional akan hadir sesaat lagi untuk menemani akhir pekan #SahabatDikbud. Yuk, simak jadwal acaranya!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/kDuFGdeQS5</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 00:45:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Minggu, 27 Desember 2020 pukul 08.00-11.00 WIB
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/XC7y0FE0lN</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 19:59:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Minggu, 27 Desember 2020 pukul 08.00-11.00 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/9lOH5yQ2xG</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 16:30:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ada tradisi tukar kado ketika Natal tiba. Namun, tradisi tukar kado sudah ada saat kerajaan Romawi loh #GenPrestasi !
+#IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #MerryChristmas #Natal2020 #TukarKado #IndiHomeStudyBagiBagiHadiah https://t.co/XFFd6jQdep</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 13:02:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Bagaimana liburan kalian? Semoga menyenangkan, ya, meskipun #dirumahsaja. Yuk, simak jadwal acara #BelajardariRumah di @TVRINasional untuk hari Sabtu, 26 Desember 2020.
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/sZw328i8Uo</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 00:42:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Sabtu, 26 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan dengan Ethnocestra Bersama Erwin Gutawa 1000 Potret ”Diantara 2 Sosok” pukul 21.30 WIB
+#SemangatBaruMarta #BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/y1arTpq5Nr</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 23:56:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Sabtu, 26 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan dengan Ethnocestra Bersama Erwin Gutawa 1000 Potret ”Diantara 2 Sosok” pukul 21.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/Y2tHrBdVhr</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 17:07:03 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -2644,13 +2711,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2953,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I275" sqref="I275"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6881,6 +6952,146 @@
         <v>504</v>
       </c>
     </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>1.34317E+18</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C281" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>1.34299E+18</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>1.34292E+18</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>1.34287E+18</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C284" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>1.34282E+18</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C285" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>1.34263E+18</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>1.34262E+18</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C287" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>1.34252E+18</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>1.34247E+18</v>
+      </c>
+      <c r="B289" t="s">
+        <v>540</v>
+      </c>
+      <c r="C289" t="s">
+        <v>541</v>
+      </c>
+      <c r="D289" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>1.34226E+18</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="619">
   <si>
     <t>id</t>
   </si>
@@ -2656,6 +2656,139 @@
   </si>
   <si>
     <t>Fri Dec 25 17:07:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kak BHnya Jatuh Awas Nampak Bodoh!
+#magabutFDN @intip_berita #intipberita #COVID19nsw #COVIDIOT #yinyin_anw #BelajarDariRumah https://t.co/9HKaJZcOG4</t>
+  </si>
+  <si>
+    <t>IntipSd</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 09:29:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>#GenPrestasi yang sudah mendapat laporan hasil semester ini, puaskah dengan nilainya?
+Belajar lagi dengan IndiHome Study yuk, supaya kamu semakin terbiasa dalam menjawab soal.
+#IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #IndiHomeStudyBagiBagiHadiah #NilaiRaport https://t.co/G29i3zbMg2</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 01:01:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Rabu, 30 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan Kita Wayang Kita pukul 21.30 WIB
+#SemangatBaruMarta
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/D4Ehih5eRV</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 00:03:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Apa rencanamu untuk mengisi liburan #dirumahsaja akhir tahun ini? Serangkaian tayangan #BelajardariRumah di @TVRINasional siap menemani #SahabatDikbud. Yuk, simak jadwal acaranya! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/D8MqFwJsVn</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 23:55:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>5 Cara Efektif Belajar dari Rumah
+UPI - KKN Tematik Penanggulangan Dampak Covid-19 di Bidang Pendidikan 
+Klik link:
+https://t.co/aAIQKBy9Do
+#PembelajaranDaring
+#BelajardariRumah</t>
+  </si>
+  <si>
+    <t>yulianpd</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 16:17:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Rabu, 30 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan Kita Wayang Kita pukul 21.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/beSmNenqTf</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 16:08:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Selasa, 29 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan dari pukul 21.30 WIB ada Kita Wayang Kita "Guruku Sahabatku"
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/8fsorEiDzK</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 02:36:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Selasa, 29 Desember 2020 pukul 08.00-11.00 WIB. Dilanjutkan dari pukul 21.30 WIB ada Kita Wayang Kita "Guruku Sahabatku"
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/FWJpEcE3PR</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 00:43:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Jangan lewatkan tayangan-tayangan menarik #BelajardariRumah di @TVRINasional hari ini, ya. Yuk, simak jadwal acara untuk hari Selasa, 29 Desember 2020! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/vkbwS1eQyV</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 23:56:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>#GenPrestasi sudah libur semester kan?
+Supaya nggak bosen di rumah aja, belajar bareng IndiHome Study yuk! 
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #IndiHomeStudyBagiBagiHadiah #LiburSemester https://t.co/ox5oF0wqvL</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 15:47:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>PART 2!! 🔥🔥
+Maapin mimin ya jarang aktif. Yukk semangat terus belajarnya 💪💪
+Good luck ☺
+.
+.
+.
+#matematika #matematikaseru #matematikamudah #hidupkanmatematika #matematikaindonesia #Mathematics #belajardarirumah #belajar #belajaronline #sma #smp #edukasi #pendidikan https://t.co/ZuYmA9eG8y</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 09:23:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program Belajar dari Rumah di TVRI Minggu Ketiga Puluh Delapan.
+.
+#unggahulang #belajardarirumah #liburandirumah
+#kemdikbud #lpmpkepri #kawanlpmpkepri https://t.co/lVXArueJWH</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 02:21:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Memasuki pekan terakhir tahun 2020, berbagai tayangan #BelajardariRumah di @TVRINasional siap hadir untuk menemani waktu belajar #SahabatDikbud. Yuk, simak jadwal hari ini! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/Pi5yDNuJFx</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 00:15:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Lebih dari 9 bulan, Falih masih #BelajardariRumah, didampingi orang tua  https://t.co/dWwtiGDJDU via @YouTube</t>
+  </si>
+  <si>
+    <t>NgartoF</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 19:03:51 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2719,9 +2852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3024,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G291" sqref="G291"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I294" sqref="I294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6840,7 +6970,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1.3411642269586509E+18</v>
       </c>
@@ -6854,7 +6984,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1.341020272099348E+18</v>
       </c>
@@ -6868,7 +6998,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1.34094044096349E+18</v>
       </c>
@@ -6882,7 +7012,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1.3409191795960671E+18</v>
       </c>
@@ -6896,7 +7026,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1.3409148699822689E+18</v>
       </c>
@@ -6910,7 +7040,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1.340869603359134E+18</v>
       </c>
@@ -6924,7 +7054,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1.340868689122402E+18</v>
       </c>
@@ -6938,7 +7068,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1.3408119241376361E+18</v>
       </c>
@@ -6952,11 +7082,11 @@
         <v>504</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>1.34317E+18</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="2" t="s">
         <v>572</v>
       </c>
       <c r="C281" t="s">
@@ -6966,11 +7096,11 @@
         <v>573</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>1.34299E+18</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B282" s="2" t="s">
         <v>574</v>
       </c>
       <c r="C282" t="s">
@@ -6980,116 +7110,348 @@
         <v>575</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
         <v>1.34292E+18</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="4">
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
         <v>1.34287E+18</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="4">
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
         <v>1.34282E+18</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="4">
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
         <v>1.34263E+18</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="4">
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
         <v>1.34262E+18</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="4">
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
         <v>1.34252E+18</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="4">
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
         <v>1.34247E+18</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="4">
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
         <v>1.34226E+18</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="2" t="s">
         <v>544</v>
+      </c>
+      <c r="E290" s="2"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1.3442140231059909E+18</v>
+      </c>
+      <c r="B291" t="s">
+        <v>588</v>
+      </c>
+      <c r="C291" t="s">
+        <v>589</v>
+      </c>
+      <c r="D291" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1.3440860884453499E+18</v>
+      </c>
+      <c r="B292" t="s">
+        <v>591</v>
+      </c>
+      <c r="C292" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1.3440715771895071E+18</v>
+      </c>
+      <c r="B293" t="s">
+        <v>593</v>
+      </c>
+      <c r="C293" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1.3440694871971881E+18</v>
+      </c>
+      <c r="B294" t="s">
+        <v>595</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1.3439543071047071E+18</v>
+      </c>
+      <c r="B295" t="s">
+        <v>597</v>
+      </c>
+      <c r="C295" t="s">
+        <v>598</v>
+      </c>
+      <c r="D295" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1.3439519603580639E+18</v>
+      </c>
+      <c r="B296" t="s">
+        <v>600</v>
+      </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1.3437476298977651E+18</v>
+      </c>
+      <c r="B297" t="s">
+        <v>602</v>
+      </c>
+      <c r="C297" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1.343719185776427E+18</v>
+      </c>
+      <c r="B298" t="s">
+        <v>604</v>
+      </c>
+      <c r="C298" t="s">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1.3437073599573199E+18</v>
+      </c>
+      <c r="B299" t="s">
+        <v>606</v>
+      </c>
+      <c r="C299" t="s">
+        <v>5</v>
+      </c>
+      <c r="D299" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1.343584315330859E+18</v>
+      </c>
+      <c r="B300" t="s">
+        <v>608</v>
+      </c>
+      <c r="C300" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1.3434877533301471E+18</v>
+      </c>
+      <c r="B301" t="s">
+        <v>610</v>
+      </c>
+      <c r="C301" t="s">
+        <v>231</v>
+      </c>
+      <c r="D301" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1.3433815097434109E+18</v>
+      </c>
+      <c r="B302" t="s">
+        <v>612</v>
+      </c>
+      <c r="C302" t="s">
+        <v>23</v>
+      </c>
+      <c r="D302" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1.3433499277205791E+18</v>
+      </c>
+      <c r="B303" t="s">
+        <v>614</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1.3432713919492749E+18</v>
+      </c>
+      <c r="B304" t="s">
+        <v>616</v>
+      </c>
+      <c r="C304" t="s">
+        <v>617</v>
+      </c>
+      <c r="D304" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1.3431688384691771E+18</v>
+      </c>
+      <c r="B305" t="s">
+        <v>572</v>
+      </c>
+      <c r="C305" t="s">
+        <v>17</v>
+      </c>
+      <c r="D305" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1.3429949228282271E+18</v>
+      </c>
+      <c r="B306" t="s">
+        <v>574</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="662">
   <si>
     <t>id</t>
   </si>
@@ -2789,6 +2789,175 @@
   </si>
   <si>
     <t>Sun Dec 27 19:03:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>perpetual adalah sistem pencatatan persediaan yang di lakukan secara langsung pada jumlah dan harga pokoknya.
+@agtn_rara 
+#akuntansi
+#persediaan
+#vyb 
+#anakakuntansi 
+#smkbisa
+#belajardarirumah</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 10:27:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dalam sebuah perenungan,dalam hening kita akan mendapat jawaban. Goresan malam karya Suara Senja dapat dinikmati dengan klik link ini https://t.co/APo7ZK2B2f
+#puisiduarasa #renungan #hening #wellbeing #kesadaran #BelajarDariRumah #samasamabelajar #mindfulness #duarasaofficial https://t.co/3jEfJPz0L3</t>
+  </si>
+  <si>
+    <t>DuaRasaofficial</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 09:37:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan DKI Jakarta mengumumkan masih menerapkan pembelajaran dari rumah pada semester genap Tahun Ajaran (TA) 2020/2021.  #BelajardariRumah https://t.co/ef6TaKBnMe</t>
+  </si>
+  <si>
+    <t>jpnncom</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 07:30:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wali Kota Kediri Keluarkan SE Tentang Pelaksanaan Pembelajaran dari Rumah #Belajardarirumah #CegahPenyebaranCovid19 #WaliKotaKediriAbdullahAbuBakar https://t.co/ya29qPae0A https://t.co/GTvCoaxBXD</t>
+  </si>
+  <si>
+    <t>superradioid</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 07:17:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cara Membuat Web &amp;amp; Landing Page Tanpa Coding Berbasis CMS Wordpress
+https://t.co/NQ6GgMoJQD
+#dirumahaja #pakaimasker #cucitangan #JagaJarak #WordPress #landingpage #umkm #ingatpesan #jagakesehatan #patuhiprotokolkesehatan #IndonesiaSehat #BelajarDariRumah #bersamalawancorona</t>
+  </si>
+  <si>
+    <t>PotekantropusX</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 05:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Teruslah belajar dimanapun berada 🍃 #BelajarDariRumah #belajar</t>
+  </si>
+  <si>
+    <t>Adib_Abbiya</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 14:33:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jangan lupa singgah guys🙏🤗
+#instagramdown #instagramposts #InstagramStories #Islam #BelajarDariRumah #YouTubeDOWN #Selebgram #SelenaGomez #Harris #Muhammad https://t.co/wr90jOzH0M</t>
+  </si>
+  <si>
+    <t>22_serli</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 14:07:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>PART 2!! 🔥🔥
+Maafin mimin ya jarang aktif.
+Yukk tetap semangat belajarnya di tahun 2021 ini!! 💪🏻
+.
+.
+.
+#matematika #matematikaseru #matematikamudah #hidupkanmatematika #matematikaindonesia #Mathematics #belajardarirumah #belajar #belajaronline #sma #smp #edukasi #pendidikan https://t.co/2aXCAAXjXW</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 13:46:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah Kabupaten Lampung Timur menunda kegiatan belajar mengajar semester dua tatap muka secara tatap muka yang direncanakan pada 4 Januari 2021.
+#KBM #BelajarDariRumah #belajar #daring #sekolah #lampung #lampostco
+https://t.co/eVFR0hBgjH</t>
+  </si>
+  <si>
+    <t>lampostco</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 12:30:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tetap gunakan IndiHome Study dan tunggu kejutan dan promo dari kami pada tahun mendatang. Jangan lupa ikutan KIGP ketika nanti diadakan yaa!
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #MalamTahunBaru #NewYearEve</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 11:52:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terima kasih #GenPrestasi yang telah menggunakan IndiHome Study sebagai aplikasi yang mendukungmu untuk #BelajarDariRumah sepanjang tahun ini.
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #MalamTahunBaru #NewYearEve https://t.co/b0hsEOB1nc</t>
+  </si>
+  <si>
+    <t>Malam tahun baru ngapain aja??
+Ya tentu nugas lahh ngapain lagi🤣🤣
+#BelajarDariRumah 
+#Homeschooling</t>
+  </si>
+  <si>
+    <t>an2a2n</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 10:46:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Sekolah 2021 - Login https://t.co/AwpNajYYPQ dan https://t.co/RNbtQltvsb Masuk Sekolah Tatap Muka SD Ditunda
+#bdr #BJJ #TVRI #BelajarDariRumah #kemendikbud #nadiemmakarim #belajaronline
+ https://t.co/7gsPZf0XvP</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 07:26:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Gunakan Comma Style pada tab Home untuk menambahkan batasan ribuan pada angkamu!
+Follow akun kami untuk mendapatkan tips dan trik reguler mengenai penggunaan excel!
+#BelajarDariRumah #Excel #computeexpert</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 01:57:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Kita sudah sampai di penghujung tahun 2020, nih. Tayangan #BelajardariRumah di @TVRINasional terus setia menemani #SahabatDikbud. Yuk, simak jadwal untuk hari ini!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/NUDxQei5gK</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 00:09:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Kamis, 31 Desember 2020 pukul 08.00-11.00 WIB
+#SemangatBaruMarta
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/39Snckrz2l</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 23:34:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Kamis, 31 Desember 2020 pukul 08.00-11.00 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/Jg7L7Kw9Bv</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 23:33:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Disdikbud Lampung telah melakukan verifikasi kesiapan KBM tatap muka, Hasil verifikasi hanya sekolah di Lampung Tengah yang lolos. 
+#kbm #kegiatanbelajarmengajar #sekolah #sekolahonline #daring #belajardaring #belajardarirumah #hermanhn #lampostco
+https://t.co/hflVzgxLgE</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 14:49:07 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -3154,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I294" sqref="I294"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H308" sqref="H308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7454,6 +7623,300 @@
         <v>575</v>
       </c>
     </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1.345315816976183E+18</v>
+      </c>
+      <c r="B307" t="s">
+        <v>619</v>
+      </c>
+      <c r="C307" t="s">
+        <v>476</v>
+      </c>
+      <c r="D307" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1.345303264565154E+18</v>
+      </c>
+      <c r="B308" t="s">
+        <v>621</v>
+      </c>
+      <c r="C308" t="s">
+        <v>622</v>
+      </c>
+      <c r="D308" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1.3452711174060319E+18</v>
+      </c>
+      <c r="B309" t="s">
+        <v>624</v>
+      </c>
+      <c r="C309" t="s">
+        <v>625</v>
+      </c>
+      <c r="D309" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1.3452680308933389E+18</v>
+      </c>
+      <c r="B310" t="s">
+        <v>627</v>
+      </c>
+      <c r="C310" t="s">
+        <v>628</v>
+      </c>
+      <c r="D310" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1.3452333590861289E+18</v>
+      </c>
+      <c r="B311" t="s">
+        <v>630</v>
+      </c>
+      <c r="C311" t="s">
+        <v>631</v>
+      </c>
+      <c r="D311" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1.345015268997644E+18</v>
+      </c>
+      <c r="B312" t="s">
+        <v>633</v>
+      </c>
+      <c r="C312" t="s">
+        <v>634</v>
+      </c>
+      <c r="D312" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1.345008728358015E+18</v>
+      </c>
+      <c r="B313" t="s">
+        <v>636</v>
+      </c>
+      <c r="C313" t="s">
+        <v>637</v>
+      </c>
+      <c r="D313" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1.3450035121874209E+18</v>
+      </c>
+      <c r="B314" t="s">
+        <v>639</v>
+      </c>
+      <c r="C314" t="s">
+        <v>231</v>
+      </c>
+      <c r="D314" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1.344984385909506E+18</v>
+      </c>
+      <c r="B315" t="s">
+        <v>641</v>
+      </c>
+      <c r="C315" t="s">
+        <v>642</v>
+      </c>
+      <c r="D315" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1.344612388973154E+18</v>
+      </c>
+      <c r="B316" t="s">
+        <v>644</v>
+      </c>
+      <c r="C316" t="s">
+        <v>17</v>
+      </c>
+      <c r="D316" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1.3446123859741939E+18</v>
+      </c>
+      <c r="B317" t="s">
+        <v>646</v>
+      </c>
+      <c r="C317" t="s">
+        <v>17</v>
+      </c>
+      <c r="D317" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1.344595803537514E+18</v>
+      </c>
+      <c r="B318" t="s">
+        <v>647</v>
+      </c>
+      <c r="C318" t="s">
+        <v>648</v>
+      </c>
+      <c r="D318" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1.344545419892724E+18</v>
+      </c>
+      <c r="B319" t="s">
+        <v>650</v>
+      </c>
+      <c r="C319" t="s">
+        <v>267</v>
+      </c>
+      <c r="D319" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1.344462622423273E+18</v>
+      </c>
+      <c r="B320" t="s">
+        <v>652</v>
+      </c>
+      <c r="C320" t="s">
+        <v>281</v>
+      </c>
+      <c r="D320" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1.344435559071007E+18</v>
+      </c>
+      <c r="B321" t="s">
+        <v>654</v>
+      </c>
+      <c r="C321" t="s">
+        <v>5</v>
+      </c>
+      <c r="D321" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1.3444267833246111E+18</v>
+      </c>
+      <c r="B322" t="s">
+        <v>656</v>
+      </c>
+      <c r="C322" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1.3444263393406771E+18</v>
+      </c>
+      <c r="B323" t="s">
+        <v>658</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1.3442944526768169E+18</v>
+      </c>
+      <c r="B324" t="s">
+        <v>660</v>
+      </c>
+      <c r="C324" t="s">
+        <v>642</v>
+      </c>
+      <c r="D324" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1.3442140231059909E+18</v>
+      </c>
+      <c r="B325" t="s">
+        <v>588</v>
+      </c>
+      <c r="C325" t="s">
+        <v>589</v>
+      </c>
+      <c r="D325" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1.3440860884453499E+18</v>
+      </c>
+      <c r="B326" t="s">
+        <v>591</v>
+      </c>
+      <c r="C326" t="s">
+        <v>17</v>
+      </c>
+      <c r="D326" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1.3440715771895071E+18</v>
+      </c>
+      <c r="B327" t="s">
+        <v>593</v>
+      </c>
+      <c r="C327" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" t="s">
+        <v>594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="768">
   <si>
     <t>id</t>
   </si>
@@ -2958,6 +2958,405 @@
   </si>
   <si>
     <t>Wed Dec 30 14:49:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pemprov DKI Jakarta melalui Dinas Pendidikan Provinsi DKI Jakarta tetap memberlakukan pembelajaran dari rumah untuk seluruh sekolah di Provinsi DKI Jakarta pada semester genap Tahun Ajaran (TA) 2020/2021.
+#jagajakarta #disdikdki #belajardarirumah #jakartatanggapcorona https://t.co/EuWoq5sJ3Q</t>
+  </si>
+  <si>
+    <t>SolikhahID</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 12:32:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembahasan Soal Usaha Part 3 (Usaha oleh Gaya Membentuk Sudut)
+#Usaha #Energi #SoalUsaha #UsahaGayaMembentukSudut #PembahasanSoalUsaha #BelajarDaring #PembelajaranDaring #BelajarDariRumah https://t.co/BGdvULjzUD</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 11:00:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi pernah main ke Candi Prambanan?
+Candi Prambanan dibangun pada abad ke-9 dengan tinggi 47 meter.
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #IPSSMP #SejarahSMP #CandiPrambanan #TryOut https://t.co/a0DKb18pT7</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 09:58:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 6 Kelas 5, Buku Tematik Tema Panas dan Perpindahannya, Contoh Sumber Energi Panas
+#bukutematik #belajardarirumah 
+https://t.co/DOI98eYObG</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 04:03:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>🎧 Pandemi covid-19 memaksa aktivitas belajar-mengajar berubah di tahun 2020 kemarin. Di semester baru sekolah nanti besar kemungkinan akan online jg, masih ingatkah apa saja tantangannya saat mulai Pembelajaran Jarak Jauh? Share dengan reply twit ini ya.. 😉 👌 #BelajarDariRumah https://t.co/DAkfAWfVdl</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:36:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembatalan pembelajaran tatap muka semester genap ini merupakan langkah yang dinilai oleh banyak orang tua dan masyarakat sebagai tindakan yang bijak bagi keamanan kesehatan para siswa.
+#agentoleransi
+#salamtoleransi
+#BelajarDariRumah
+#sekolah
+#kemendikbud
+https://t.co/WXcGuedtUp</t>
+  </si>
+  <si>
+    <t>YukToleran</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:18:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL TVRI KELAS 1 SD, EPISODE 2: ATURAN DI RUMAH, BELAJAR DARI RUMAH HARI INI, SELASA 5 JANUARI 2021.
+#BelajardariRumah #BelajardariRumahTVRI #belajardirumah 
+https://t.co/XJrLzbzWdO</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:17:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL TVRI KELAS 1 SD, EPISODE 2: ATURAN DI RUMAH, BELAJAR DARI RUMAH HARI INI, SELASA 5 JANUARI 2021.
+#BelajardariRumah #BelajardariRumahTVRI #belajardirumah 
+https://t.co/XJrLzbRx5m</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:01:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hai #SahabatPerpusdikbud , ayo kita simak jadwal belajar dari rumah hari ini.
+Persiapkan diri kalian, jika mengalami kesulitan jangan sungkan ajak orang tua untuk ikut mendampingi belajar ya.
+Semangat!
+#merdekabelajar
+#belajardarirumah
+#bersamahadapikorona 
+#Perpusdikbud https://t.co/UDafe2837H</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 01:37:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Walaupun sebagian masih belajar dari rumah, tetap semangat yaa!
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #LiburSekolah</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 13:41:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah pusat mengizinkan pemerintah daerah untuk melaksanakan pembelajaran tatap muka (PTM).
+#BelajarDariRumah #belajaronline #daring #KBM #UPI #IKAUPI #lampung #lampostco
+https://t.co/rb8U9YjcY0</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 13:37:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>kepingin insekyur tpi dee gaisok masak🤣
+rebus air ae gosong
+#Insecure #blitar #BelajarDariRumah</t>
+  </si>
+  <si>
+    <t>humanseblak</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 12:38:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Kabupaten Pesawaran, memutuskan kegiatan belajar mengajar (KBM) tatap muka di Bumi Andan Jejama diundur sampai waktu yang belum ditentukan.
+#BelajarDariRumah #belajaronline #daring #KBM #pesawaran #lampung #lampostco
+https://t.co/SQduyCyQxr</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 10:36:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Soal dan Jawaban TVRI Kelas 6 SD Senin 4 Januari 2021 Belajar dari Rumah tentang Alat Transportasi 
+https://t.co/n06qxDIy7j via @tribunkaltim #BelajarDariRumah #SoalJawabanTVRI #AlatTransportasi</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 05:31:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yok semangat yok udah masuk aja sekolahnya tapi tetep Daring. Semester terakhir hmm tinggal nunggu ujian :)
+#sekolah #daring #coronavirus #BelajarDariRumah #msteams #smk</t>
+  </si>
+  <si>
+    <t>_saddhuman_</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 03:50:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kemendikbud telah menyiapkan program Belajar Dari Rumah (BDR) untuk mendukung PJJ sebagai alternatif pembelajaran di masa pandemi. 
+Yuk, lihat jadwal pembelajaran program BDR bersama TVRI, Minggu pertama di Tahun 2021 
+#MerdekaBelajar 
+#BersamaHadapiKorona 
+#BelajardariRumah https://t.co/K6EiUneJDl</t>
+  </si>
+  <si>
+    <t>LPMPBALI</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 03:35:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kelas dr rumah semester genap telah dimulai pagi ini. Dimulai dgn kelas luar bersama ; olahraga pagi 
+Selamat menikmati kebersamaan bersama anak2  tuk penguatan akhlak, logika dan entrepreneur serta leadershipnya. #BelajarDariRumah https://t.co/VAzZsKdCDh</t>
+  </si>
+  <si>
+    <t>klik_ayet</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 03:12:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SobatKom
+Yuk, simak juga jadwal tayang #BelajardariRumah di @tvrinasional untuk hari ini, Senin, 4 Januari 2021
+Semangat belajar di tahun yang baru, ya, #SobatKom
+#MerdekaBelajar #BersamaHadapiKorona https://t.co/VBJStK4e0M</t>
+  </si>
+  <si>
+    <t>kominfongw</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 02:58:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bagi mamah muda jangan galau dalam merawat anak era internet begini panduannya #BelajarDariRumah
+https://t.co/bAvEcy4Cee</t>
+  </si>
+  <si>
+    <t>rinariris99</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 02:13:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi teman kece 👋
+Semangat buat semester barunya. 
+Jangan lupa sarapan dan tetap jaga kesehatan kalian ya 🤗
+#kejarcita #semesterbaru #BelajarDariRumah https://t.co/1bXfcGuWH4</t>
+  </si>
+  <si>
+    <t>kejarcitaid</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 02:00:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cara Membuat Web &amp;amp; Landing Page Tanpa Coding Berbasis CMS Wordpress
+https://t.co/NQ6GgMGlfd
+#dirumahaja #pakaimasker #cucitangan #JagaJarak #WordPress #landingpage #umkm #ingatpesan #jagakesehatan #patuhiprotokolkesehatan #IndonesiaSehat #BelajarDariRumah #bersamalawancorona</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 02:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL DAN JAWABAN TVRI KELAS 4-6 HARI INI 4 JANUARI 2021, TEMA 5 ALAT TRANSPORTASI DAN JENIS-JENISNYA
+#BelajarDariRumah #TribunKaltim 
+https://t.co/qoW98mDcDe via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:36:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program Belajar dari Rumah di TVRI Minggu Pertama Tahun 2021.
+#unggahulang #belajardarirumah 
+#kemdikbud #lpmpkepri #kawanlpmpkepri https://t.co/eagCzLyksP</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:19:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Senin, 4 Januari 2021 pukul 08.00-11.30 WIB
+#SemangatBaruMarta
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/I6U9pdqTVi</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:16:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hari ini (4/1/21), awal hari aktivitas bersekolah. Sekolah dari rumah sebagai pilihan tepat utk menekan penyebaran virus dan pengutamaan keselamatan generasi penerus bangsa. #BelajarDariRumah</t>
+  </si>
+  <si>
+    <t>siprinar</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:59:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal #belajardarirumah di #TVRI Senin 4 Januari plus link #LiveStreaming 
+https://t.co/a2UDIOnkyP</t>
+  </si>
+  <si>
+    <t>davidhinsatama</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:32:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kembali lagi ke aktivitas dimana kita harus mengerjakan tugas segunung 🤦
+Welcome Back to Online School 
+#BelajarDariRumah</t>
+  </si>
+  <si>
+    <t>rvandkh</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:16:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL TVRI KELAS 1-3 SD HARI INI 4 JANUARI 2021, TEMA 5 DENAH RUMAHKU, CONTOH PERATURAN DI RUMAH
+#BDR #BelajarDariRumah #TribunKaltim
+https://t.co/bfuceVScqP via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 23:01:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Senin, 4 Januari 2021 pukul 08.00-11.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/OnhsMxbHh6</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 16:21:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tetap #BelajarDariRumah dulu https://t.co/qdVwGpNBiN</t>
+  </si>
+  <si>
+    <t>thebaim</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 13:33:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi ada yang besok sudah masuk sekolah? Atau masih libur seminggu lagi?
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #LiburSekolah https://t.co/xWoL6eTzzF</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 12:52:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gak perlu bingung lagi kalau banyak quiz atau ujian, belajar aja di Kelas Pintar!
+#bimbel #bimbelonline #BelajarDariRumah #pjj #kelaspintarindonesia https://t.co/6oW9lVsIIC</t>
+  </si>
+  <si>
+    <t>kelaspintar_id</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 10:49:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>JADWAL Belajar dari Rumah TVRI Senin 4 Januari 2021 Semester Genap untuk PAUD SD Kelas 1 2 3 4 5 6
+#belajardarirumah #belajartvri #semestergenap #belajartvri #tvri #belajar #senin4januari2021
+ https://t.co/kTzwVZcCg8</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 08:52:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk, simak juga jadwal tayang #BelajardariRumah di @TVRINasional untuk hari Senin, 4 Januari 2021! Semangat belajar di tahun yang baru, ya, #SahabatDikbud! 
+#BersamaHadapiKorona https://t.co/puk0kW1XSo</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 07:15:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat siang, #SahabatDikbud. Dapatkan Panduan Pembelajaran Program #BelajardariRumah di @TVRINasional minggu pertama tahun 2021 dengan mengunjungi https://t.co/cYwQMWU6DE.
+#BersamaHadapiKorona https://t.co/lZj6vc9exy</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 07:11:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>#SahabatEdukasi sudah siap mengikuti proses pembelajaran kembali di semester baru ini? Yuk lihat panduan pembelajaran program Belajar Dari Rumah (BDR) di TVRI untuk minggu pertama di tahun 2021.
+https://t.co/jyBhHcWiia
+#BelajarDariRumah #serubelajarkebiasaanbaru #merdekabelajar</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 06:59:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Libur telah usai, kini saatnya #SahabatPerpusdikbud bersiap kembali sekolah.
+Bagi #SahabatPerpusdikbud yg memiliki anak sekolah PAUD dan SD yuk catat jadwalnya serta persiapkan diri untuk belajar dari rumah di @TVRINasional ya
+#merdekabelajar
+#belajardarirumah
+#bersamahapaikorona https://t.co/hlpV39SKP2</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 05:52:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemprov DKI Jakarta melalui Dinas Pendidikan Provinsi DKI Jakarta tetap memberlakukan pembelajaran dari rumah utk seluruh sekolah di Provinsi DKI Jakarta pada semester genap Tahun Ajaran 2020/2021.
+https://t.co/oMSDnRdgzC
+#jagajakarta #disdikdki #belajardarirumah #hadapibersama https://t.co/B43mgwYovf</t>
+  </si>
+  <si>
+    <t>DKIJakarta</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 05:32:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 05:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Materi Konsep Usaha - #BelajarDariRumah https://t.co/OLJvzQ9vuR https://t.co/M56xqG7Xt1</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 00:52:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembahasan Soal Usaha Part 2 (Usaha Oleh Gaya Mendatar)
+#konsepusaha #usahagayamendatar #soalusaha #pembelajarandaring #belajardarirumah https://t.co/I37By0Y9S8</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 00:43:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berbekal dari pengalaman pribadi serta menyadari pentingnya makanan sehat untuk keluarga sehingga terangkum resep&amp;amp; menu dalam buku ini. Kehadiran buku ini diharapkan membantu orang tua maupun mereka yg ingin terjun bisnis kuliner.
+#MerdekaBelajar
+#BelajarDariRumah
+#Eperpusdikbud https://t.co/UIYmiiwdRf</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 00:15:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Materi Fisika Kelas X : Materi Konsep Usaha - #BelajarDariRumah https://t.co/0SJ9s54STu</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 23:46:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Baru Belajar dari Rumah TVRI untuk PAUD dan SD Kelas 1-6, Tiap Senin-Jumat Selama 30 Menit
+https://t.co/kk7OLxdr7G #JadwalBaru #BelajarDariRumah #TVRI #BelajarOnline</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 22:26:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>@ProfesorZubairi SMA Xaverius 3 awal semester Genap masih  #BelajarDariRumah :) #StaySafe semuanya! https://t.co/pJBUYMTIZz</t>
+  </si>
+  <si>
+    <t>xavegaplg_</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 15:57:39 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -3323,10 +3722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E327"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H308" sqref="H308"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L371" sqref="L371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7917,6 +8316,720 @@
         <v>594</v>
       </c>
     </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1.3464345011996101E+18</v>
+      </c>
+      <c r="B328" t="s">
+        <v>662</v>
+      </c>
+      <c r="C328" t="s">
+        <v>663</v>
+      </c>
+      <c r="D328" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1.3464112693145971E+18</v>
+      </c>
+      <c r="B329" t="s">
+        <v>665</v>
+      </c>
+      <c r="C329" t="s">
+        <v>120</v>
+      </c>
+      <c r="D329" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1.346395677492802E+18</v>
+      </c>
+      <c r="B330" t="s">
+        <v>667</v>
+      </c>
+      <c r="C330" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1.3463062959685919E+18</v>
+      </c>
+      <c r="B331" t="s">
+        <v>669</v>
+      </c>
+      <c r="C331" t="s">
+        <v>26</v>
+      </c>
+      <c r="D331" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1.3462842913749199E+18</v>
+      </c>
+      <c r="B332" t="s">
+        <v>671</v>
+      </c>
+      <c r="C332" t="s">
+        <v>541</v>
+      </c>
+      <c r="D332" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1.3462797563171469E+18</v>
+      </c>
+      <c r="B333" t="s">
+        <v>673</v>
+      </c>
+      <c r="C333" t="s">
+        <v>674</v>
+      </c>
+      <c r="D333" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1.3462795004395599E+18</v>
+      </c>
+      <c r="B334" t="s">
+        <v>676</v>
+      </c>
+      <c r="C334" t="s">
+        <v>26</v>
+      </c>
+      <c r="D334" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1.3462756272387561E+18</v>
+      </c>
+      <c r="B335" t="s">
+        <v>678</v>
+      </c>
+      <c r="C335" t="s">
+        <v>26</v>
+      </c>
+      <c r="D335" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1.3462752262842939E+18</v>
+      </c>
+      <c r="B336" t="s">
+        <v>630</v>
+      </c>
+      <c r="C336" t="s">
+        <v>631</v>
+      </c>
+      <c r="D336" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1.3462696788055491E+18</v>
+      </c>
+      <c r="B337" t="s">
+        <v>681</v>
+      </c>
+      <c r="C337" t="s">
+        <v>365</v>
+      </c>
+      <c r="D337" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1.34608939585042E+18</v>
+      </c>
+      <c r="B338" t="s">
+        <v>683</v>
+      </c>
+      <c r="C338" t="s">
+        <v>17</v>
+      </c>
+      <c r="D338" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1.3460883879381399E+18</v>
+      </c>
+      <c r="B339" t="s">
+        <v>685</v>
+      </c>
+      <c r="C339" t="s">
+        <v>642</v>
+      </c>
+      <c r="D339" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1.346073614454465E+18</v>
+      </c>
+      <c r="B340" t="s">
+        <v>687</v>
+      </c>
+      <c r="C340" t="s">
+        <v>688</v>
+      </c>
+      <c r="D340" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1.346042820201599E+18</v>
+      </c>
+      <c r="B341" t="s">
+        <v>690</v>
+      </c>
+      <c r="C341" t="s">
+        <v>642</v>
+      </c>
+      <c r="D341" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1.3459661344329439E+18</v>
+      </c>
+      <c r="B342" t="s">
+        <v>692</v>
+      </c>
+      <c r="C342" t="s">
+        <v>26</v>
+      </c>
+      <c r="D342" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1.345940669911552E+18</v>
+      </c>
+      <c r="B343" t="s">
+        <v>694</v>
+      </c>
+      <c r="C343" t="s">
+        <v>695</v>
+      </c>
+      <c r="D343" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1.3459368228456781E+18</v>
+      </c>
+      <c r="B344" t="s">
+        <v>697</v>
+      </c>
+      <c r="C344" t="s">
+        <v>698</v>
+      </c>
+      <c r="D344" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1.3459312003769469E+18</v>
+      </c>
+      <c r="B345" t="s">
+        <v>700</v>
+      </c>
+      <c r="C345" t="s">
+        <v>701</v>
+      </c>
+      <c r="D345" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1.3459276698802181E+18</v>
+      </c>
+      <c r="B346" t="s">
+        <v>703</v>
+      </c>
+      <c r="C346" t="s">
+        <v>704</v>
+      </c>
+      <c r="D346" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1.3459161145098281E+18</v>
+      </c>
+      <c r="B347" t="s">
+        <v>706</v>
+      </c>
+      <c r="C347" t="s">
+        <v>707</v>
+      </c>
+      <c r="D347" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1.3459128744855219E+18</v>
+      </c>
+      <c r="B348" t="s">
+        <v>709</v>
+      </c>
+      <c r="C348" t="s">
+        <v>710</v>
+      </c>
+      <c r="D348" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1.3459128346397199E+18</v>
+      </c>
+      <c r="B349" t="s">
+        <v>712</v>
+      </c>
+      <c r="C349" t="s">
+        <v>631</v>
+      </c>
+      <c r="D349" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1.3459068623408051E+18</v>
+      </c>
+      <c r="B350" t="s">
+        <v>714</v>
+      </c>
+      <c r="C350" t="s">
+        <v>26</v>
+      </c>
+      <c r="D350" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1.3459027166823419E+18</v>
+      </c>
+      <c r="B351" t="s">
+        <v>716</v>
+      </c>
+      <c r="C351" t="s">
+        <v>23</v>
+      </c>
+      <c r="D351" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1.3459018910084339E+18</v>
+      </c>
+      <c r="B352" t="s">
+        <v>718</v>
+      </c>
+      <c r="C352" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1.3458976076676669E+18</v>
+      </c>
+      <c r="B353" t="s">
+        <v>720</v>
+      </c>
+      <c r="C353" t="s">
+        <v>721</v>
+      </c>
+      <c r="D353" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1.3458909111761961E+18</v>
+      </c>
+      <c r="B354" t="s">
+        <v>723</v>
+      </c>
+      <c r="C354" t="s">
+        <v>724</v>
+      </c>
+      <c r="D354" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1.3458867745857741E+18</v>
+      </c>
+      <c r="B355" t="s">
+        <v>726</v>
+      </c>
+      <c r="C355" t="s">
+        <v>727</v>
+      </c>
+      <c r="D355" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1.3458680180147689E+18</v>
+      </c>
+      <c r="B356" t="s">
+        <v>729</v>
+      </c>
+      <c r="C356" t="s">
+        <v>26</v>
+      </c>
+      <c r="D356" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1.3457671713396119E+18</v>
+      </c>
+      <c r="B357" t="s">
+        <v>731</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1.3457250880463009E+18</v>
+      </c>
+      <c r="B358" t="s">
+        <v>733</v>
+      </c>
+      <c r="C358" t="s">
+        <v>734</v>
+      </c>
+      <c r="D358" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1.345714757362282E+18</v>
+      </c>
+      <c r="B359" t="s">
+        <v>736</v>
+      </c>
+      <c r="C359" t="s">
+        <v>17</v>
+      </c>
+      <c r="D359" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1.345683617188438E+18</v>
+      </c>
+      <c r="B360" t="s">
+        <v>738</v>
+      </c>
+      <c r="C360" t="s">
+        <v>739</v>
+      </c>
+      <c r="D360" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1.3456541447831429E+18</v>
+      </c>
+      <c r="B361" t="s">
+        <v>741</v>
+      </c>
+      <c r="C361" t="s">
+        <v>267</v>
+      </c>
+      <c r="D361" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1.3456297365720509E+18</v>
+      </c>
+      <c r="B362" t="s">
+        <v>743</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1.345628893030486E+18</v>
+      </c>
+      <c r="B363" t="s">
+        <v>745</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1.3456258847120829E+18</v>
+      </c>
+      <c r="B364" t="s">
+        <v>747</v>
+      </c>
+      <c r="C364" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1.3456090564975171E+18</v>
+      </c>
+      <c r="B365" t="s">
+        <v>749</v>
+      </c>
+      <c r="C365" t="s">
+        <v>365</v>
+      </c>
+      <c r="D365" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1.345603967221342E+18</v>
+      </c>
+      <c r="B366" t="s">
+        <v>751</v>
+      </c>
+      <c r="C366" t="s">
+        <v>752</v>
+      </c>
+      <c r="D366" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1.3455957448336471E+18</v>
+      </c>
+      <c r="B367" t="s">
+        <v>712</v>
+      </c>
+      <c r="C367" t="s">
+        <v>631</v>
+      </c>
+      <c r="D367" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1.3455333430271921E+18</v>
+      </c>
+      <c r="B368" t="s">
+        <v>755</v>
+      </c>
+      <c r="C368" t="s">
+        <v>120</v>
+      </c>
+      <c r="D368" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1.3455311894827991E+18</v>
+      </c>
+      <c r="B369" t="s">
+        <v>757</v>
+      </c>
+      <c r="C369" t="s">
+        <v>120</v>
+      </c>
+      <c r="D369" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1.3455241401916211E+18</v>
+      </c>
+      <c r="B370" t="s">
+        <v>759</v>
+      </c>
+      <c r="C370" t="s">
+        <v>365</v>
+      </c>
+      <c r="D370" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>1.345516767439831E+18</v>
+      </c>
+      <c r="B371" t="s">
+        <v>761</v>
+      </c>
+      <c r="C371" t="s">
+        <v>120</v>
+      </c>
+      <c r="D371" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>1.3454967659364559E+18</v>
+      </c>
+      <c r="B372" t="s">
+        <v>763</v>
+      </c>
+      <c r="C372" t="s">
+        <v>26</v>
+      </c>
+      <c r="D372" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>1.345398859829109E+18</v>
+      </c>
+      <c r="B373" t="s">
+        <v>765</v>
+      </c>
+      <c r="C373" t="s">
+        <v>766</v>
+      </c>
+      <c r="D373" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>1.345315816976183E+18</v>
+      </c>
+      <c r="B374" t="s">
+        <v>619</v>
+      </c>
+      <c r="C374" t="s">
+        <v>476</v>
+      </c>
+      <c r="D374" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>1.345303264565154E+18</v>
+      </c>
+      <c r="B375" t="s">
+        <v>621</v>
+      </c>
+      <c r="C375" t="s">
+        <v>622</v>
+      </c>
+      <c r="D375" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1.3452711174060319E+18</v>
+      </c>
+      <c r="B376" t="s">
+        <v>624</v>
+      </c>
+      <c r="C376" t="s">
+        <v>625</v>
+      </c>
+      <c r="D376" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>1.3452680308933389E+18</v>
+      </c>
+      <c r="B377" t="s">
+        <v>627</v>
+      </c>
+      <c r="C377" t="s">
+        <v>628</v>
+      </c>
+      <c r="D377" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>1.3452333590861289E+18</v>
+      </c>
+      <c r="B378" t="s">
+        <v>630</v>
+      </c>
+      <c r="C378" t="s">
+        <v>631</v>
+      </c>
+      <c r="D378" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="846">
   <si>
     <t>id</t>
   </si>
@@ -3357,6 +3357,320 @@
   </si>
   <si>
     <t>Sat Jan 02 15:57:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/rzzA2C1GwE
+#latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #buguru #kuis #toefl #toeic #ielts #elearning #kuis #learnfromhome #pintar #siswa #sd #smp #sma #pengetahuan #ilmu #belajardarirumah #kursus https://t.co/32helURVAu</t>
+  </si>
+  <si>
+    <t>weblatihansoal</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 13:18:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tahun baru saatnya menambah ilmu baru atau memperdalam ilmu yg ada. Yuk, #belajardirumah bersama Akademi Penulis Buku. Kepoin jadwal Kelas Digitalnya &amp;amp; daftar pakai kode KLARA180... biar dpt diskon 😄😍😇
+#tahunbaru2021 #belajaronline #kelasdigital #belajardarirumah #5M https://t.co/hN8qNSjXRL</t>
+  </si>
+  <si>
+    <t>dwiklarasari</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 09:57:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hai #SobatTambang,, Harga Batubara Acuan (HBA) dan Harga Mineral Logam Acuan (HMA) Januari 2021 udah keluar nih, yuk simak infografis di bawah ini..
+#BDTBT #PPSDMGeominerba #KESDM #UndergroundMining #Sawahlunto #Covid19 #lawancorona #belajardarirumah https://t.co/8XwczJfk70</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 08:10:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hayo ngaku siapa yang kalo mau belajar kaya gini juga? 🤭
+Yuk follow tiktok kejarcita 
+https://t.co/PRr5Hc4EJh 
+#kejarcita #BelajarDariRumah #latihansoal https://t.co/VWXzn1H0i8</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:30:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajardarirumah #BeritaTerkini #berita #beritaviral #beritanasional #news #newsupdate #viral #viralkan #COVID #COVID19 #Covid_19 #COVIDー19 #JumatPenuhRahmat #JumatBerkah #jumatmubarak #Jumat #FridayMotivation #friday https://t.co/fTb1hnmpEm</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:30:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajardarirumah #BeritaTerkini #berita #beritaviral #beritanasional #news #newsupdate #viral #viralkan #COVID #COVID19 #Covid_19 #COVIDー19 #JumatPenuhRahmat #JumatBerkah #jumatmubarak #Jumat #FridayMotivation #friday https://t.co/4htFkeVaxb</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:30:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajardarirumah #BeritaTerkini #berita #beritaviral #beritanasional #news #newsupdate #viral #viralkan #COVID #COVID19 #Covid_19 #COVIDー19 #JumatPenuhRahmat #JumatBerkah #jumatmubarak #Jumat #FridayMotivation #friday https://t.co/UDhVA1vQvl</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:30:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajardarirumah #BeritaTerkini #berita #beritaviral #beritanasional #news #newsupdate #viral #viralkan #COVID #COVID19 #Covid_19 #COVIDー19 #JumatPenuhRahmat #JumatBerkah #jumatmubarak #Jumat #FridayMotivation #friday  https://t.co/UcNrlSlRzP</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:29:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajardarirumah #BeritaTerkini #berita #beritaviral #beritanasional #news #newsupdate #viral #viralkan #COVID #COVID19 #Covid_19 #COVIDー19 #JumatPenuhRahmat #JumatBerkah #jumatmubarak #Jumat #FridayMotivation #friday https://t.co/PiwSit1gYP</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:29:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajardarirumah #BeritaTerkini #berita #beritaviral #beritanasional #news #newsupdate #viral #viralkan #COVID #COVID19 #Covid_19 #COVIDー19 #JumatPenuhRahmat #JumatBerkah #jumatmubarak #Jumat #FridayMotivation #friday
+https://t.co/DqtHgHQxmd</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:29:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Soal TVRI Hari Ini Kelas 4, Jenis-jenis Alat Transportasi, Belajar dari Rumah Jumat 8 Januari 2021
+#BelajardariRumah #BelajardariRumahTVRI #TVRI 
+https://t.co/f3ap0PWr3P</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 02:46:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 02:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Jelang akhir pekan, tayangan #BelajardariRumah di @TVRINasional siap hadir untuk menemani waktu belajar #SahabatDikbud. Yuk, simak jadwal tayang untuk hari ini, Jumat, 8 Januari 2021!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/qIcZIN4LsR</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 23:40:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Jumat, 8 Januari 2021 pukul 08.00-11.30 WIB
+#SemangatBaruMarta
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/IOBjMM8f0M</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 22:10:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Jumat, 8 Januari 2021 pukul 08.00-11.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/PfrmVBp5Dv</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 16:00:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>2021 ada yang baru nih #GenPrestasi !
+Pada #KamisKuis kali ini, kita main Teka-teki Study yuk! Jawab pertanyaan pada gambar yaa!
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #KamisKuis #TekaTekiStudy https://t.co/9QGi011ypD</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 13:10:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Soal TVRI Hari Ini Kelas 4, Perkembangan Alat Transportasi, Belajar dari Rumah, Kamis 7 Januari
+#belajardarirumah #belajardarirumahtvri #TVRI
+https://t.co/B2FDYpxhW1</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:47:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Soal TVRI Hari Ini Kelas 4, Perkembangan Alat Transportasi, Belajar dari Rumah, Kamis 7 Januari
+#belajardarirumah #belajardarirumahtvri #TVRI
+https://t.co/B2FDYpfGxr</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:45:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Situasi emang kin buruk. #PSBB ketat diberlakukan di beberapa wilayah. So, selamat datang kembali untuk #belajardarirumah https://t.co/x47bKayHks</t>
+  </si>
+  <si>
+    <t>Charles29905780</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:13:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Kamis, 7 Januari 2021 pukul 08.00-11.30 WIB
+#SemangatBaruMarta
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/Uq6r4SPctO</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 01:40:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Kamis, 7 Januari 2021 pukul 08.00-11.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/CvoiWz9MBN</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 01:33:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Yuk, siapkan catatanmu! Kita kembali belajar bersama. Simak jadwal tayang #BelajardariRumah di @TVRINasional untuk hari ini, ya!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/RJ9FONlSiO</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 23:37:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembahasan Soal Usaha Part 6 Menghitung Usaha dari Beberapa gaya#UsahadanEnergi 
+#KonsepUsaha #ContohSoalUsaha #UsahabeberapaGaya #PembelajaranDaring #BelajarDariRumah https://t.co/MYVfSxqHDY</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 23:14:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi masih ingat tentang Sehun EXO yang menggunakan sandal jepit?
+Ternyata sandal merupakan komoditas ekspor Indonesia loh!
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #IPSSMA #EkonomiSMA #Ekspor https://t.co/dOMQ46laxg</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 12:49:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Kabupaten Lampung Selatan menjadwalkan kegiatan belajar mengajar (KBM) tatap muka digelar pada 1 Februari 2021.
+#BelajarDariRumah #belajaronline #daring #KBM #lamsel #lampung #lampostco
+https://t.co/Hv41u7A8FJ</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 11:11:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>#dirumahaja ngapain?yuk belajar #pattern  #polabaju dan #BelajarDariRumah menjahit baju. akan di tuntun #stepbystep ya sampai bisa. #guru #datangkerumah. buat yg #dijakarta dan sekitarnya silahkan hubungi WA 082112346428</t>
+  </si>
+  <si>
+    <t>sarlinetahulend</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 11:01:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fisika Kelas XI : Materi Gelombang Mekanik: Karakteristik Gelombang Transversal dan Longitudinal
+#Gelombang #GelombangMekanik #GelombangTransversal #GelombangLongitudinal #KarakteristikGelombang #PembelajaranDaring #BelajarDariRumah https://t.co/kKwIc96TXC</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 06:46:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Besaran Dana &amp;amp; Cara Mendapatkan Bantuan Biaya Pendidikan Kartu Indonesia Pintar (KIP) https://t.co/3YPGovjMh9 #pakaimasker #JagaJarak #jagakesehatan #mencucitangan  #bersamalawancorona #dirumahaja #IndonesiaSehat #KIP #PagiPagi #AbuBakarBaasyir #BelajarDariRumah #RabuMerindu</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 04:01:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Melalui aplikasi:
+dengan mengunduh aplikasi TV Edukasi di playstore/AppStore
+Ikuti juga podcast menarik dan edukatif melalui Spotify Suara Edukasi Podcast:
+https://t.co/OqtBItKB1J
+Suara Edukasi
+Akrab dan Mencerdaskan
+#suaraedukasi
+#pusdatinkemdikbud
+#belajardarirumah</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 02:35:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 6 Kelas 5, Buku Tematik Tema Panas dan Perpindahannya, Contoh Sumber Energi Panas
+#bukutematik #belajardarirumah 
+https://t.co/cHEw65yWPq</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 02:07:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 6 Kelas 5, Buku Tematik Tema Panas dan Perpindahannya, Contoh Sumber Energi Panas
+#bukutematik #belajardarirumah 
+https://t.co/DOI98fgpAg</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 02:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Rabu, 6 Januari 2021 pukul 08.00-11.30 WIB
+#SemangatBaruMarta
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/fkREZDqxuf</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:50:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL DAN JAWABAN TVRI KELAS 1 SD, MARI MENGENAL RUANGAN, BELAJAR DARI RUMAH HARI INI, RABU 6 JANUARI 2021
+#BelajardariRumah #BelajardariRumahTVRI #TVRI 
+https://t.co/xGjWtH7iH5</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:17:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program "BELAJAR DARI RUMAH"  Hari Rabu, 6 Januari 2021 pukul 08.00-11.30 WIB
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/miluVu8epY</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 00:59:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL DAN JAWABAN TVRI KELAS 1 SD, MARI MENGENAL RUANGAN, BELAJAR DARI RUMAH HARI INI, RABU 6 JANUARI 2021
+#BelajardariRumah #BelajardariRumahTVRI #TVRI 
+https://t.co/xGjWtGPHiv</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 00:18:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pagi #SahabatPerpusdikbud , sudah siap untuk belajar dari rumah hari ini kan?
+Ayo kita lihat jadwalnya.
+Jangan lupa siapkan alat tulis kalian ya, selamat belajar..🙂
+#Perpusdikbud
+#merdekabelajar
+#belajardarirumah
+#bersamahadapikorona https://t.co/xM7K4977OC</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 23:45:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah siap belajar kembali pagi hari ini? Yuk, simak jadwal tayang #BelajardariRumah di @TVRINasional untuk hari Rabu, 6 Januari 2021!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/wNtrD7TasE</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 23:38:07 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -3722,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L371" sqref="L371"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J432" sqref="J432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9030,6 +9344,692 @@
         <v>632</v>
       </c>
     </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1.3475330184291981E+18</v>
+      </c>
+      <c r="B379" t="s">
+        <v>768</v>
+      </c>
+      <c r="C379" t="s">
+        <v>769</v>
+      </c>
+      <c r="D379" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>1.347482458879627E+18</v>
+      </c>
+      <c r="B380" t="s">
+        <v>771</v>
+      </c>
+      <c r="C380" t="s">
+        <v>772</v>
+      </c>
+      <c r="D380" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>1.347455695621247E+18</v>
+      </c>
+      <c r="B381" t="s">
+        <v>774</v>
+      </c>
+      <c r="C381" t="s">
+        <v>270</v>
+      </c>
+      <c r="D381" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>1.3474003494857359E+18</v>
+      </c>
+      <c r="B382" t="s">
+        <v>776</v>
+      </c>
+      <c r="C382" t="s">
+        <v>710</v>
+      </c>
+      <c r="D382" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>1.347400256573428E+18</v>
+      </c>
+      <c r="B383" t="s">
+        <v>778</v>
+      </c>
+      <c r="C383" t="s">
+        <v>267</v>
+      </c>
+      <c r="D383" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>1.3474002006633879E+18</v>
+      </c>
+      <c r="B384" t="s">
+        <v>780</v>
+      </c>
+      <c r="C384" t="s">
+        <v>267</v>
+      </c>
+      <c r="D384" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>1.347400143021122E+18</v>
+      </c>
+      <c r="B385" t="s">
+        <v>782</v>
+      </c>
+      <c r="C385" t="s">
+        <v>267</v>
+      </c>
+      <c r="D385" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1.3474000896904599E+18</v>
+      </c>
+      <c r="B386" t="s">
+        <v>784</v>
+      </c>
+      <c r="C386" t="s">
+        <v>267</v>
+      </c>
+      <c r="D386" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>1.3474000252031099E+18</v>
+      </c>
+      <c r="B387" t="s">
+        <v>786</v>
+      </c>
+      <c r="C387" t="s">
+        <v>267</v>
+      </c>
+      <c r="D387" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>1.3473999695698371E+18</v>
+      </c>
+      <c r="B388" t="s">
+        <v>788</v>
+      </c>
+      <c r="C388" t="s">
+        <v>267</v>
+      </c>
+      <c r="D388" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1.347373970836791E+18</v>
+      </c>
+      <c r="B389" t="s">
+        <v>790</v>
+      </c>
+      <c r="C389" t="s">
+        <v>26</v>
+      </c>
+      <c r="D389" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>1.3473623857413E+18</v>
+      </c>
+      <c r="B390" t="s">
+        <v>630</v>
+      </c>
+      <c r="C390" t="s">
+        <v>631</v>
+      </c>
+      <c r="D390" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>1.3473271932867871E+18</v>
+      </c>
+      <c r="B391" t="s">
+        <v>793</v>
+      </c>
+      <c r="C391" t="s">
+        <v>5</v>
+      </c>
+      <c r="D391" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>1.3473046833338161E+18</v>
+      </c>
+      <c r="B392" t="s">
+        <v>795</v>
+      </c>
+      <c r="C392" t="s">
+        <v>8</v>
+      </c>
+      <c r="D392" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>1.3472115463515871E+18</v>
+      </c>
+      <c r="B393" t="s">
+        <v>797</v>
+      </c>
+      <c r="C393" t="s">
+        <v>11</v>
+      </c>
+      <c r="D393" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1.3471688132932941E+18</v>
+      </c>
+      <c r="B394" t="s">
+        <v>799</v>
+      </c>
+      <c r="C394" t="s">
+        <v>17</v>
+      </c>
+      <c r="D394" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1.3470118260605581E+18</v>
+      </c>
+      <c r="B395" t="s">
+        <v>801</v>
+      </c>
+      <c r="C395" t="s">
+        <v>26</v>
+      </c>
+      <c r="D395" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>1.3470114270059149E+18</v>
+      </c>
+      <c r="B396" t="s">
+        <v>803</v>
+      </c>
+      <c r="C396" t="s">
+        <v>26</v>
+      </c>
+      <c r="D396" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>1.3470034015030111E+18</v>
+      </c>
+      <c r="B397" t="s">
+        <v>805</v>
+      </c>
+      <c r="C397" t="s">
+        <v>806</v>
+      </c>
+      <c r="D397" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1.346999999473676E+18</v>
+      </c>
+      <c r="B398" t="s">
+        <v>630</v>
+      </c>
+      <c r="C398" t="s">
+        <v>631</v>
+      </c>
+      <c r="D398" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>1.3469949834971341E+18</v>
+      </c>
+      <c r="B399" t="s">
+        <v>809</v>
+      </c>
+      <c r="C399" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>1.3469932103719649E+18</v>
+      </c>
+      <c r="B400" t="s">
+        <v>811</v>
+      </c>
+      <c r="C400" t="s">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>1.3469641963159181E+18</v>
+      </c>
+      <c r="B401" t="s">
+        <v>813</v>
+      </c>
+      <c r="C401" t="s">
+        <v>5</v>
+      </c>
+      <c r="D401" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>1.346958286847767E+18</v>
+      </c>
+      <c r="B402" t="s">
+        <v>815</v>
+      </c>
+      <c r="C402" t="s">
+        <v>120</v>
+      </c>
+      <c r="D402" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>1.3468010334653811E+18</v>
+      </c>
+      <c r="B403" t="s">
+        <v>817</v>
+      </c>
+      <c r="C403" t="s">
+        <v>17</v>
+      </c>
+      <c r="D403" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1.3467763925626921E+18</v>
+      </c>
+      <c r="B404" t="s">
+        <v>819</v>
+      </c>
+      <c r="C404" t="s">
+        <v>642</v>
+      </c>
+      <c r="D404" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1.3467739834844731E+18</v>
+      </c>
+      <c r="B405" t="s">
+        <v>821</v>
+      </c>
+      <c r="C405" t="s">
+        <v>822</v>
+      </c>
+      <c r="D405" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>1.3467097892801411E+18</v>
+      </c>
+      <c r="B406" t="s">
+        <v>824</v>
+      </c>
+      <c r="C406" t="s">
+        <v>120</v>
+      </c>
+      <c r="D406" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1.3466682979414999E+18</v>
+      </c>
+      <c r="B407" t="s">
+        <v>826</v>
+      </c>
+      <c r="C407" t="s">
+        <v>631</v>
+      </c>
+      <c r="D407" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1.34664663931059E+18</v>
+      </c>
+      <c r="B408" t="s">
+        <v>828</v>
+      </c>
+      <c r="C408" t="s">
+        <v>20</v>
+      </c>
+      <c r="D408" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>1.3466393717898611E+18</v>
+      </c>
+      <c r="B409" t="s">
+        <v>830</v>
+      </c>
+      <c r="C409" t="s">
+        <v>26</v>
+      </c>
+      <c r="D409" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1.346639371601109E+18</v>
+      </c>
+      <c r="B410" t="s">
+        <v>832</v>
+      </c>
+      <c r="C410" t="s">
+        <v>26</v>
+      </c>
+      <c r="D410" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1.346637610022826E+18</v>
+      </c>
+      <c r="B411" t="s">
+        <v>712</v>
+      </c>
+      <c r="C411" t="s">
+        <v>631</v>
+      </c>
+      <c r="D411" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>1.3466353057265789E+18</v>
+      </c>
+      <c r="B412" t="s">
+        <v>834</v>
+      </c>
+      <c r="C412" t="s">
+        <v>8</v>
+      </c>
+      <c r="D412" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1.3466267889953139E+18</v>
+      </c>
+      <c r="B413" t="s">
+        <v>836</v>
+      </c>
+      <c r="C413" t="s">
+        <v>26</v>
+      </c>
+      <c r="D413" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>1.3466223341116291E+18</v>
+      </c>
+      <c r="B414" t="s">
+        <v>838</v>
+      </c>
+      <c r="C414" t="s">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1.3466121111793541E+18</v>
+      </c>
+      <c r="B415" t="s">
+        <v>840</v>
+      </c>
+      <c r="C415" t="s">
+        <v>26</v>
+      </c>
+      <c r="D415" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1.346603733623349E+18</v>
+      </c>
+      <c r="B416" t="s">
+        <v>842</v>
+      </c>
+      <c r="C416" t="s">
+        <v>365</v>
+      </c>
+      <c r="D416" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>1.3466019033632479E+18</v>
+      </c>
+      <c r="B417" t="s">
+        <v>844</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+      <c r="D417" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1.3464345011996101E+18</v>
+      </c>
+      <c r="B418" t="s">
+        <v>662</v>
+      </c>
+      <c r="C418" t="s">
+        <v>663</v>
+      </c>
+      <c r="D418" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>1.3464112693145971E+18</v>
+      </c>
+      <c r="B419" t="s">
+        <v>665</v>
+      </c>
+      <c r="C419" t="s">
+        <v>120</v>
+      </c>
+      <c r="D419" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1.346395677492802E+18</v>
+      </c>
+      <c r="B420" t="s">
+        <v>667</v>
+      </c>
+      <c r="C420" t="s">
+        <v>17</v>
+      </c>
+      <c r="D420" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>1.3463062959685919E+18</v>
+      </c>
+      <c r="B421" t="s">
+        <v>669</v>
+      </c>
+      <c r="C421" t="s">
+        <v>26</v>
+      </c>
+      <c r="D421" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>1.3462842913749199E+18</v>
+      </c>
+      <c r="B422" t="s">
+        <v>671</v>
+      </c>
+      <c r="C422" t="s">
+        <v>541</v>
+      </c>
+      <c r="D422" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1.3462797563171469E+18</v>
+      </c>
+      <c r="B423" t="s">
+        <v>673</v>
+      </c>
+      <c r="C423" t="s">
+        <v>674</v>
+      </c>
+      <c r="D423" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>1.3462795004395599E+18</v>
+      </c>
+      <c r="B424" t="s">
+        <v>676</v>
+      </c>
+      <c r="C424" t="s">
+        <v>26</v>
+      </c>
+      <c r="D424" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>1.3462756272387561E+18</v>
+      </c>
+      <c r="B425" t="s">
+        <v>678</v>
+      </c>
+      <c r="C425" t="s">
+        <v>26</v>
+      </c>
+      <c r="D425" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>1.3462752262842939E+18</v>
+      </c>
+      <c r="B426" t="s">
+        <v>630</v>
+      </c>
+      <c r="C426" t="s">
+        <v>631</v>
+      </c>
+      <c r="D426" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1.3462696788055491E+18</v>
+      </c>
+      <c r="B427" t="s">
+        <v>681</v>
+      </c>
+      <c r="C427" t="s">
+        <v>365</v>
+      </c>
+      <c r="D427" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="901">
   <si>
     <t>id</t>
   </si>
@@ -3671,6 +3671,230 @@
   </si>
   <si>
     <t>Tue Jan 05 23:38:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kali ini, kita cari tahu beberapa suku bangsa di Indonesia serta contoh suku dari daerah-daerah di Indonesia, yuk! #sekolah #belajardarirumah https://t.co/x34kOuSs4I</t>
+  </si>
+  <si>
+    <t>majalah_bobo</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 13:01:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mengapa metamorfosis kupu-kupu disebut metamorfosis sempurna dan mengapa metamorfosis belalang disebut metamorfosis tidak sempurna, ya? #sekolah #belajardarirumah https://t.co/xt3JKX0sVE</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 12:46:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi pernah menemukan kata-kata is, am, are dalam bahasa Inggris? Kata-kata itu sebutannya to be.
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #BahasaInggrisSD #ToBe https://t.co/t8xKUOjOO0</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 12:02:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Meski terlihat sederhana, fungsi elektrolit di dalam tubuh begitu besar, lo. Yuk, cari tahu selengkapnya tentang fungsi elektrolit dalam tubuh dan gangguan elektrolit! #sekolah #belajardarirumah https://t.co/pbjmeYMjl6</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 11:36:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Alhamdulillah.
+Pertemuan pertama di semester genap tahun ajaran 2020/2021 bisa dilaksanakan melalui zoom meeting dan disaksikan live di kanal youtube SMK BHS.
+#smkbhs
+#semestergenap
+#belajardarirumah https://t.co/gRKwztj3W6</t>
+  </si>
+  <si>
+    <t>smkbhs</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 07:49:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/dgJVNcw7hw
+#latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #buguru #kuis #toefl #toeic #ielts #elearning #kuis #learnfromhome #pintar #siswa #sd #smp #sma #pengetahuan #ilmu #belajardarirumah #kursus https://t.co/LzZPQudHtm</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 03:11:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI JAWABAN SOAL TVRI KELAS 4, HARI INI 11 JANUARI 2021, EPISODE 6: TRANSPORTASI UMUM DAN PRIBADI
+#TVRI #Belajardarirumah #TribunKaltim 
+https://t.co/UPYykEWdXb</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 01:25:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Senin, 11 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/2vcm8oHUPZ</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 00:41:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Senin, 11 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa
+#TVRI #TVRINASIONAL https://t.co/Fwxw6fcpd7</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 00:39:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 6 Kelas 4 Halaman 14-17 dan 21 Subtema 1 Buku Tematik, Puisi dan Tanda Tempo
+https://t.co/WtkwDsCqMG
+#Belajardarirumah #KunciJawaban #tema6kelas4 #BukuTematik #Puisi #Tandatempo #TribunKaltim</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 22:54:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL TVRI DAN JADWAL BELAJAR DARI RUMAH HARI INI SENIN 11 JANUARI 2021, JALAN DI SEKITAR DAN TRANSPORTASI
+#Belajardarirumah #TribunKaltim #Belajardirumah 
+https://t.co/HIaj1qiRQ5</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 22:39:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Simak pula jadwal tayang #BelajardariRumah di @TVRINasional untuk hari Senin, 11 Januari 2021.
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/8nN7YrmtNd</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 13:54:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat malam, #SahabatDikbud. Dapatkan Panduan Pembelajaran Program #BelajardariRumah di @TVRINasional Minggu Kedua Tahun 2021 pada laman https://t.co/IjTaxZOoAv.
+#MerdekaBelajar
+#BersamaHadapiKorona</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 13:54:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Terima kasih atas apresiasinya pada preorder buku Smart Big Book 365 Aktivitas PAUD yang sudah terpesan lebih dari 3.000 eksemplar 😃. Semoga buku ini menjadi manfaat untuk anak-anak hebat Indonesia
+#Preorder #365AktivitasPAUD #BelajarDariRumah #CikalAksara https://t.co/sIa3Yfsbwb</t>
+  </si>
+  <si>
+    <t>CikalAksara</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 13:14:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hutan berperan sebagai sumber makanan, obat-obatan, dan bahan bakar bagi lebih dari satu miliar orang. Namun, hutan semakin terancam di seluruh dunia oleh deforestasi.
+#IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #HariLingkunganHidup #SatuJutaPohon https://t.co/rdWOIET9bC</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 09:41:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cara Melihat Jalan dan Rumah di Google Maps Android.
+Credit image: Google Maps
+https://t.co/auVnG9NVD2
+#smartphone #android #Android  #Belajar #Belajardarirumah #DirumahAja #DirumahSaja #JagaJarak #PakaiMasker #NewNormal #WorkFromHome #DigitalTransformation https://t.co/wNp8l9QNqr</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 07:42:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi selama pandemi ini rajin mengonsumsi vitamin C nggak nih?
+Dilansir dari https://t.co/6LA2FpE1Hw, ternyata setengah cangkir cabai merah cincang mengandung 107,8 miligram vitamin C. 
+#BelajarBarengIndiHomeStudy #BelajarDariRumah #dirumahaja #SabtuSeru #VitaminC https://t.co/2rzbsTy6f1</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 12:17:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#BelajarDariRumah #belajar #sekolah #BeritaTerkini #BeritaNasional #berita #beritaviral #Viral #viralkan #news #NewsUpdate #school #schools #COVID19 #Covid_19 #COVID #sabtu #SaturdayThoughts #SaturdayVibes #SATURDAY #SaturdayMood https://t.co/FDqxmw2tzx</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 08:34:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#BelajarDariRumah #belajar #sekolah #BeritaTerkini #BeritaNasional #berita #beritaviral #Viral #viralkan #news #NewsUpdate #school #schools #COVID19 #Covid_19 #COVID #sabtu #SaturdayThoughts #SaturdayVibes #SATURDAY #SaturdayMood https://t.co/wjbhm8cs3n</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 08:34:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#BelajarDariRumah #belajar #sekolah #BeritaTerkini #BeritaNasional #berita #beritaviral #Viral #viralkan #news #NewsUpdate #school #schools #COVID19 #Covid_19 #COVID #sabtu #SaturdayThoughts #SaturdayVibes #SATURDAY #SaturdayMood https://t.co/ti7kaUhsms</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 08:34:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#BelajarDariRumah #belajar #sekolah #BeritaTerkini #BeritaNasional #berita #beritaviral #Viral #viralkan #news #NewsUpdate #school #schools #COVID19 #Covid_19 #COVID #sabtu #SaturdayThoughts #SaturdayVibes #SATURDAY #SaturdayMood 
+https://t.co/ziGFAPtY2p</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 08:33:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk, beli produk ini sekarang!
+Meja Lipat/Laptop Biru - 60x30x25 cm
+-----------------------
+Harga: Rp59,000
+Beli: https://t.co/MFii53SKoW
+Langsung klik link diatas sebelum kehabisan! #DijaminOri #webinar #mejalipat #BelajarDariRumah</t>
+  </si>
+  <si>
+    <t>syakirasyakir</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 07:22:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/X6qJnDXkPE
+#latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #buguru #kuis #toefl #toeic #ielts #elearning #kuis #learnfromhome #pintar #siswa #sd #smp #sma #pengetahuan #ilmu #belajardarirumah #kursus https://t.co/IRujK71iPV</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 06:11:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hai #SahabatPerpusdikbud, masih semangat kan belajar dari rumah?
+Yuk bikin belajar dari rumah kalian menjadi menyenangkan.
+Perpusdikbud punya tipsnya loh, ayo lihat&amp;amp;ikuti tips di bawah ini ya.
+#Perpusdikbud
+#TipsPerpusdikbud
+#merdekabelajar
+#belajardarirumah
+#bersamahadapikorona https://t.co/yB58GwnM0j</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 00:27:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Belajar dari Rumah.
+..
+#bdr #belajardarirumah #pjj #belajardengandaring @ Antang Raya https://t.co/J8v8nGgFii</t>
+  </si>
+  <si>
+    <t>iswekke</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 14:23:27 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -4036,10 +4260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J432" sqref="J432"/>
+    <sheetView tabSelected="1" topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I462" sqref="I462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10030,6 +10254,524 @@
         <v>682</v>
       </c>
     </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>1.348615895803945E+18</v>
+      </c>
+      <c r="B428" t="s">
+        <v>846</v>
+      </c>
+      <c r="C428" t="s">
+        <v>847</v>
+      </c>
+      <c r="D428" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>1.3486121207584151E+18</v>
+      </c>
+      <c r="B429" t="s">
+        <v>849</v>
+      </c>
+      <c r="C429" t="s">
+        <v>847</v>
+      </c>
+      <c r="D429" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>1.3486012705636109E+18</v>
+      </c>
+      <c r="B430" t="s">
+        <v>851</v>
+      </c>
+      <c r="C430" t="s">
+        <v>17</v>
+      </c>
+      <c r="D430" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1.3485945045935099E+18</v>
+      </c>
+      <c r="B431" t="s">
+        <v>853</v>
+      </c>
+      <c r="C431" t="s">
+        <v>847</v>
+      </c>
+      <c r="D431" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>1.3485374164081869E+18</v>
+      </c>
+      <c r="B432" t="s">
+        <v>855</v>
+      </c>
+      <c r="C432" t="s">
+        <v>856</v>
+      </c>
+      <c r="D432" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>1.3484675229666749E+18</v>
+      </c>
+      <c r="B433" t="s">
+        <v>858</v>
+      </c>
+      <c r="C433" t="s">
+        <v>769</v>
+      </c>
+      <c r="D433" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1.348440763005194E+18</v>
+      </c>
+      <c r="B434" t="s">
+        <v>860</v>
+      </c>
+      <c r="C434" t="s">
+        <v>26</v>
+      </c>
+      <c r="D434" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>1.3484297570130619E+18</v>
+      </c>
+      <c r="B435" t="s">
+        <v>862</v>
+      </c>
+      <c r="C435" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1.34842933720941E+18</v>
+      </c>
+      <c r="B436" t="s">
+        <v>864</v>
+      </c>
+      <c r="C436" t="s">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>1.3484029394512159E+18</v>
+      </c>
+      <c r="B437" t="s">
+        <v>866</v>
+      </c>
+      <c r="C437" t="s">
+        <v>26</v>
+      </c>
+      <c r="D437" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>1.348399025452577E+18</v>
+      </c>
+      <c r="B438" t="s">
+        <v>868</v>
+      </c>
+      <c r="C438" t="s">
+        <v>26</v>
+      </c>
+      <c r="D438" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1.3482668873359849E+18</v>
+      </c>
+      <c r="B439" t="s">
+        <v>870</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1.3482668795052439E+18</v>
+      </c>
+      <c r="B440" t="s">
+        <v>872</v>
+      </c>
+      <c r="C440" t="s">
+        <v>5</v>
+      </c>
+      <c r="D440" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1.3482567859880799E+18</v>
+      </c>
+      <c r="B441" t="s">
+        <v>874</v>
+      </c>
+      <c r="C441" t="s">
+        <v>875</v>
+      </c>
+      <c r="D441" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1.3482032548243579E+18</v>
+      </c>
+      <c r="B442" t="s">
+        <v>877</v>
+      </c>
+      <c r="C442" t="s">
+        <v>17</v>
+      </c>
+      <c r="D442" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1.348173229609783E+18</v>
+      </c>
+      <c r="B443" t="s">
+        <v>879</v>
+      </c>
+      <c r="C443" t="s">
+        <v>473</v>
+      </c>
+      <c r="D443" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1.3478802215469299E+18</v>
+      </c>
+      <c r="B444" t="s">
+        <v>881</v>
+      </c>
+      <c r="C444" t="s">
+        <v>17</v>
+      </c>
+      <c r="D444" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>1.3478240834597189E+18</v>
+      </c>
+      <c r="B445" t="s">
+        <v>883</v>
+      </c>
+      <c r="C445" t="s">
+        <v>267</v>
+      </c>
+      <c r="D445" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>1.347824029726462E+18</v>
+      </c>
+      <c r="B446" t="s">
+        <v>885</v>
+      </c>
+      <c r="C446" t="s">
+        <v>267</v>
+      </c>
+      <c r="D446" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1.3478239637626719E+18</v>
+      </c>
+      <c r="B447" t="s">
+        <v>887</v>
+      </c>
+      <c r="C447" t="s">
+        <v>267</v>
+      </c>
+      <c r="D447" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>1.3478238888607291E+18</v>
+      </c>
+      <c r="B448" t="s">
+        <v>889</v>
+      </c>
+      <c r="C448" t="s">
+        <v>267</v>
+      </c>
+      <c r="D448" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1.3478059974572401E+18</v>
+      </c>
+      <c r="B449" t="s">
+        <v>891</v>
+      </c>
+      <c r="C449" t="s">
+        <v>892</v>
+      </c>
+      <c r="D449" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>1.3477881342394611E+18</v>
+      </c>
+      <c r="B450" t="s">
+        <v>894</v>
+      </c>
+      <c r="C450" t="s">
+        <v>769</v>
+      </c>
+      <c r="D450" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>1.3477014417045949E+18</v>
+      </c>
+      <c r="B451" t="s">
+        <v>896</v>
+      </c>
+      <c r="C451" t="s">
+        <v>365</v>
+      </c>
+      <c r="D451" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1.347549481944887E+18</v>
+      </c>
+      <c r="B452" t="s">
+        <v>898</v>
+      </c>
+      <c r="C452" t="s">
+        <v>899</v>
+      </c>
+      <c r="D452" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>1.3475330184291981E+18</v>
+      </c>
+      <c r="B453" t="s">
+        <v>768</v>
+      </c>
+      <c r="C453" t="s">
+        <v>769</v>
+      </c>
+      <c r="D453" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>1.347482458879627E+18</v>
+      </c>
+      <c r="B454" t="s">
+        <v>771</v>
+      </c>
+      <c r="C454" t="s">
+        <v>772</v>
+      </c>
+      <c r="D454" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>1.347455695621247E+18</v>
+      </c>
+      <c r="B455" t="s">
+        <v>774</v>
+      </c>
+      <c r="C455" t="s">
+        <v>270</v>
+      </c>
+      <c r="D455" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>1.3474003494857359E+18</v>
+      </c>
+      <c r="B456" t="s">
+        <v>776</v>
+      </c>
+      <c r="C456" t="s">
+        <v>710</v>
+      </c>
+      <c r="D456" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>1.347400256573428E+18</v>
+      </c>
+      <c r="B457" t="s">
+        <v>778</v>
+      </c>
+      <c r="C457" t="s">
+        <v>267</v>
+      </c>
+      <c r="D457" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>1.3474002006633879E+18</v>
+      </c>
+      <c r="B458" t="s">
+        <v>780</v>
+      </c>
+      <c r="C458" t="s">
+        <v>267</v>
+      </c>
+      <c r="D458" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1.347400143021122E+18</v>
+      </c>
+      <c r="B459" t="s">
+        <v>782</v>
+      </c>
+      <c r="C459" t="s">
+        <v>267</v>
+      </c>
+      <c r="D459" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>1.3474000896904599E+18</v>
+      </c>
+      <c r="B460" t="s">
+        <v>784</v>
+      </c>
+      <c r="C460" t="s">
+        <v>267</v>
+      </c>
+      <c r="D460" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>1.3474000252031099E+18</v>
+      </c>
+      <c r="B461" t="s">
+        <v>786</v>
+      </c>
+      <c r="C461" t="s">
+        <v>267</v>
+      </c>
+      <c r="D461" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>1.3473999695698371E+18</v>
+      </c>
+      <c r="B462" t="s">
+        <v>788</v>
+      </c>
+      <c r="C462" t="s">
+        <v>267</v>
+      </c>
+      <c r="D462" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>1.347373970836791E+18</v>
+      </c>
+      <c r="B463" t="s">
+        <v>790</v>
+      </c>
+      <c r="C463" t="s">
+        <v>26</v>
+      </c>
+      <c r="D463" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>1.3473623857413E+18</v>
+      </c>
+      <c r="B464" t="s">
+        <v>630</v>
+      </c>
+      <c r="C464" t="s">
+        <v>631</v>
+      </c>
+      <c r="D464" t="s">
+        <v>792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1042">
   <si>
     <t>id</t>
   </si>
@@ -3895,6 +3895,586 @@
   </si>
   <si>
     <t>Fri Jan 08 14:23:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Simak pula jadwal tayang program #BelajardariRumah di @TVRINasional untuk hari Senin, 18 Januari 2021.
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/YntJse1hQZ</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 13:44:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat malam, #SahabatDikbud. Dapatkan Panduan Pembelajaran Program #BelajardariRumah di @TVRINasional Minggu Ketiga Tahun 2021 dengan mengunjungi https://t.co/FSjDvj4174.
+#MerdekaBelajar
+#BersamaHadapiKorona</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 13:44:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fun Encyclopedia: Fauna Darat Nusantara https://t.co/pemyuPkonA #TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #cucitangan #lawancovid19 #ingatpesanibujagajarak #malamminggu #SabtuRebahan #bacabuku #VaksinBiarTenang #VaksinasiNasional #VaksinYoVaksin</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 10:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fun Encyclopedia: Fauna Darat Nusantara https://t.co/waKXRyrjgG #TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #cucitangan #lawancovid19 #ingatpesanibujagajarak #malamminggu #SabtuRebahan #bacabuku #VaksinBiarTenang #VaksinasiNasional #VaksinYoVaksin</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 10:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#belajardarirumah #belajar #school2021 #school #SchoolDays #sekolah #viral #viralkan #news #newsupdate #newsviral #BeritaTerkini #beritaViral #beritanasional #berita
+https://t.co/9nZkiT8mcv</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 09:25:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#belajardarirumah #belajar #school2021 #school #SchoolDays #sekolah #viral #viralkan #news #newsupdate #newsviral #BeritaTerkini #beritaViral #beritanasional #berita https://t.co/JoMEHk5ssb</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 09:25:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#belajardarirumah #belajar #school2021 #school #SchoolDays #sekolah #viral #viralkan #news #newsupdate #newsviral #BeritaTerkini #beritaViral #beritanasional #berita
+https://t.co/iL9psBgZNV</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 09:25:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bismillahirrahmanirrahim, kita mulai lagi belajar hari Senin 18 Januari 2021, kita syukuri nikmat dari Allah, kita masih bisa belajar walau harus dari rumah saja (BDR). #BelajarDariRumah #BahagiaDiRumah #ImSharing #imhappy @rumahzakat @filantraofficial @paragon.id https://t.co/rOgggFEN4t</t>
+  </si>
+  <si>
+    <t>sdjuaraparagon</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 07:34:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>#SahabatBahasa, Sudah Tahukah Anda?
+#STA
+#BelajardariRumah
+#BersamaLawanKorona
+#BerbahasauntukIndonesiaSehat
+#BangkituntukIndonesiaMaju https://t.co/FKySWvtE7h</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 15:17:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>@sfeaznal Hai guys, sesiapa kat sini nak belajar mengaji online??
+Boleh tekan link di bawah 🔽
+https://t.co/v6yCzKuEdT
+#KelasMengajiOnline #kelasngaji
+#belajardarirumah #digitaleducation https://t.co/iEGqrUjulv</t>
+  </si>
+  <si>
+    <t>secrethujan</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 14:28:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#SchoolDays #school #schools #sekolah #belajardarirumah #BeritaTerkini #Berita #beritanasional #beritaviral #viral #viralkan #NewsUpdate #news #COVID19 #Covid_19 #COVID #Corona #coronavirus #JumatBerkah #JumatPenuhRahmat #Jumat #JumAttAmbyar https://t.co/aVVHgmeFjC</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 04:18:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#SchoolDays #school #schools #sekolah #belajardarirumah #BeritaTerkini #Berita #beritanasional #beritaviral #viral #viralkan #NewsUpdate #news #COVID19 #Covid_19 #COVID #Corona #coronavirus #JumatBerkah #JumatPenuhRahmat #Jumat #JumAttAmbyar https://t.co/k0ecgOVtwR</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 04:18:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#SchoolDays #school #schools #sekolah #belajardarirumah #BeritaTerkini #Berita #beritanasional #beritaviral #viral #viralkan #NewsUpdate #news #COVID19 #Covid_19 #COVID #Corona #coronavirus #JumatBerkah #JumatPenuhRahmat #Jumat #JumAttAmbyar https://t.co/7TaJnZoi2t</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 04:18:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#SchoolDays #school #schools #sekolah #belajardarirumah #BeritaTerkini #Berita #beritanasional #beritaviral #viral #viralkan #NewsUpdate #news #COVID19 #Covid_19 #COVID #Corona #coronavirus #JumatBerkah #JumatPenuhRahmat #Jumat #JumAttAmbyar https://t.co/9EeMMMylmY</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 04:17:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#SchoolDays #school #schools #sekolah #belajardarirumah #BeritaTerkini #Berita #beritanasional #beritaviral #viral #viralkan #NewsUpdate #news #COVID19 #Covid_19 #COVID #Corona #coronavirus #JumatBerkah #JumatPenuhRahmat #Jumat #JumAttAmbyar https://t.co/golTQvR8VW</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 04:17:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#SchoolDays #school #schools #sekolah #belajardarirumah #BeritaTerkini #Berita #beritanasional #beritaviral #viral #viralkan #NewsUpdate #news #COVID19 #Covid_19 #COVID #Corona #coronavirus #JumatBerkah #JumatPenuhRahmat #Jumat #JumAttAmbyar
+https://t.co/YwNAZqqhT2</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 04:17:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI JAWABAN SOAL TVRI KELAS 4 SD HARI INI 15 JANUARI 2021, TVRI EPISODE 10: ANGKUTAN UMUM DAN RAMBU SEGITIGA
+#TVRI #belajardarirumah #TribunKaltim 
+https://t.co/irqVO53ZAH</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 03:19:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Jelang akhir pekan, berbagai tayangan #BelajardariRumah di @TVRINasional siap hadir menemani #SahabatDikbud. Yuk, simak jadwal tayangnya!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/VuWesHa6tt</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 23:33:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Jumat, 15 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta 
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/UYggzhluAT</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 15:14:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Jumat, 15 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/JCFziiJqZ6</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 15:01:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Exam 1 subjek ada 2 hari
+2 hari tu nak tulis ape erk
+#BelajarDariRumah</t>
+  </si>
+  <si>
+    <t>SyahiraEfilya</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 14:10:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>JADWAL Belajar dari Rumah TVRI Jumat 15 Januari 2021 untuk PAUD &amp;amp; SD Kelas 1 2 3 4 5 6 Episode 10
+#belajardarirumah #belajartvri #semestergenap #belajartvri #tvri #belajar 
+https://t.co/lW8r3Cr70P.</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 13:17:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kaget aja pas liat video pelajaran bahasa Arab (kiriman istri pas ngelesi), kok ada yg aneh dengan contoh kalimat yang dijelaskan Ibu Guru dalam video ini. Apa karna sy kurang lama di Pesantren?
+Innalilahi #RakyatDikelabui
+#BelajarDariRumah #belajardaring https://t.co/CBEnw020ft</t>
+  </si>
+  <si>
+    <t>achsantoso_</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 09:52:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Karna ada lks,mood belajar ku jadi bertambah ❤️😍
+#ambistwt #BelajarDariRumah https://t.co/re6choum68</t>
+  </si>
+  <si>
+    <t>sedangambis23</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 08:34:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ingat ya, satu keputusan bisa menyelamatkan banyak orang. Tetap jalan protokol kesehatan, pandemi belum berakhir ya #SobatTambang
+#BDTBT #PPSDMGeominerba #KESDM #UndergroundMining #Sawahlunto #kotawisatatambang #TahukahAnda #Geopark #UNESCO #Covid19 #lawancorona #belajardarirumah https://t.co/esFQZOXK0w</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 07:08:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#sekolah #SchoolDays #schools #school #BeritaTerkini #BeritaNasional #berita #viral #viralkan #BelajarDariRumah #COVID19 #Covid_19 #COVID #kamismanis #Kamis https://t.co/ebSSYlbiV4</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 05:02:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#sekolah #SchoolDays #schools #school #BeritaTerkini #BeritaNasional #berita #viral #viralkan #BelajarDariRumah #COVID19 #Covid_19 #COVID #kamismanis #Kamis https://t.co/RnGPwbpefv</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 05:02:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#sekolah #SchoolDays #schools #school #BeritaTerkini #BeritaNasional #berita #viral #viralkan #BelajarDariRumah #COVID19 #Covid_19 #COVID #kamismanis #Kamis 
+https://t.co/fEIgaIcQxp</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 05:01:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Kamis, 14 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/UYjttA93TT</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 01:25:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Yuk, siapkan catatanmu! Kita belajar bersama lagi hari ini. Berikut jadwal acara #BelajardariRumah di @TVRINasional untuk hari Kamis, 14 Januari 2021.
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/RQnwlaU86C</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 23:37:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Catat link live streaming belajar dari rumah di TVRI Online Jadwal dan Materi Belajar dari Rumah (BDR) di TVRI Hari Kamis 14 januari 2021.
+#jadwaldanmateribdrtvri #belajardarirumah #bdrtvri #soaldanjawabantvri
+https://t.co/jMd2jeVGSV</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 18:57:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Kamis, 14 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/FXkxpnZkR1</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 15:00:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>SAYEMBARA - @ditpsd_dikbud KEMENDIKBUD
+Dalam Memperingati Hari Dharma Samudera
+"Aku Dan Aksiku Untuk Lautku"
+Nama : Rizqi Moenandir
+Kelas : IV
+Judul Karya : Ikan Laut Di Piringku
+https://t.co/we7DUuZuEY
+#SahabatSekolahDasar
+#sdnwijayakusuma02
+#HariDharmaSamudera
+#BelajarDariRumah</t>
+  </si>
+  <si>
+    <t>RizqiMoenandir</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 12:57:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Barisan Aritmatika adalah suatu barisan bilangan dengan pola tertentu berupa penjumlahan yang memiliki beda atau selisih yang sama/tetap.
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #MatematikaSMA #BarisanAritmatika #sekolah #sekolahonline https://t.co/yPipzyd31F</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 12:23:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Penerapan Efek Fotolistrik dalam kehidupan sehari hari
+#EfekFotolistrik #PenerapanEfekFotolistrik #AplikasiEfekfotolistrik #Fotolistrik  
+#BelajarDariRumah #PembelajaranDaring https://t.co/D9ffAb5Dnz</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 10:40:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Emang kenapa sih kelasnya via whatsapp?
+#kelaspedia #kelasonline #BelajarDariRumah #WhatsApp https://t.co/P7bYd0keIy</t>
+  </si>
+  <si>
+    <t>kelaspedia_id</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 09:00:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk, Skillers, kenalan lebih mesra sama Kelaspedia.
+#kelaspedia #kelasonline #BelajarDariRumah #whatsapp https://t.co/QKPdp2bbrR</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 06:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kabar gembira untuk kita semua, bukan kulit manggis, bukan sulap bukan sihir. Kelaspedia, platform belajar online via Whatsapp Group bakal jadi tempat belajar yang asik buat kamu. 
+#kelaspedia #kelasonline #BelajarDariRumah #whatsapp https://t.co/oWg5uEuWGw</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 05:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk belajar matematika dari rumah dengan menonton video ini https://t.co/sWYXMJu0xA jangan lupa like, share dan subscribe channelnya juga, ya. Supaya kamu bisa mendapat update terbaru dari sekolah. #merdekabelajar #belajardarirumah #studyfromhome</t>
+  </si>
+  <si>
+    <t>smkignatius_smg</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 03:06:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Materi Fisika Kelas X : Pembahasan Soal Hubungan Usaha dengan Energi Kinetik Part 2
+#UsahadanEnergi #KonsepUsaha #HubunganUsahadanEnergi #BelajarDariRumah #PembelajaranDaring https://t.co/nYhol5FNfq</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 00:44:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Materi Fisika Kelas X : Pembahasan Soal Hubungan Usaha dengan Energi Kinetik Part 1
+#UsahadanEnergi #KonsepUsaha #HubunganUsahadanEnergi #BelajarDariRumah #PembelajaranDaring #persamaangerakjatuhbebas #programgurubelajar #menganali…https://t.co/8GeR2CrkpH https://t.co/X3J15eJVp4</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 00:42:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>#SahabatPerpusdikbud mari kita simak jadwal belajar dari rumah untuk hari ini di @TVRINasional .
+Selamat belajar!
+#merdekabelajar
+#bersamahadapikorona
+#Perpusdikbud
+#belajardarirumah https://t.co/b1kUjMajIo</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 00:16:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sebelum memulai aktivitas dan kembali belajar hari ini, jangan lupa sarapan dahulu, ya. Yuk, simak jadwal acara #BelajardariRumah di @TVRINasional untuk hari Rabu, 13 Januari 2021! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/tVItT5jCIA</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 23:30:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hidup dizaman dimana semua informasi bisa diakses, terlebih dibidang pendidikan, dan kamu masih punya banyak alasan untuk tidak belajar.......!
+Ttd.
+________
+(Skripsi)
+.
+#mahasiswa 
+#mahasiswi 
+#pendidikan 
+#BelajarDariRumah</t>
+  </si>
+  <si>
+    <t>Sudirman272</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 18:30:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bingung mau daftar beasiswa tapi nilai TOEFL masih rendah? 
+Yuk daftar dan ikut kelas TOEFL online! 
+Waktunya fleksibel sesuai dengan jadwal kamu pula. #studyonline #TOEFL #studyathome #dynamiteenglishcourse #BelajarDariRumah https://t.co/zLvGkTVt5e</t>
+  </si>
+  <si>
+    <t>dynamiteecourse</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 17:41:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Rabu, 13 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI
+https://t.co/aeuE4Jb32n</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 15:07:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Rabu, 13 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/j3p0mOlAft</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 15:00:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi Bumi yang kita tinggali sangat indah di permukaan, memiliki daratan dan lautan, juga memiliki berbagai lapisan hingga sampai ke inti bumi.
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #IPSSMP #LapisanBumi #sekolah #sekolahonline https://t.co/ggFQ1YA47x</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 12:25:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>AAAA BBB CCC DEEE DARING UDAH MULAI AKTIF YA BUND:V
+#DARING  #BDR #BELAJARDARIRUMAH</t>
+  </si>
+  <si>
+    <t>cukupptauu</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 10:38:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>UNDUH APLIKASI DAPODIK 2021C DISINI
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #dapodik #kemdikbud #kemendikbud https://t.co/xCBIzApHls</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:11:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>DOWNLOAD DAPODIK 2021 C DI LINK INI
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #dapodik #kemdikbud #kemendikbud https://t.co/M24IDJMdcM</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:11:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>INI CARA INSTAL DAPODIK 2021 C
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #dapodik #kemdikbud #kemendikbud
+https://t.co/ivRZKh5slS</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:11:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona https://t.co/NLAU7A3S3Q</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:10:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona https://t.co/BFGayVPtLJ</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:09:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona https://t.co/oytLzTageP</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:09:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona https://t.co/5U9j2HOIDb</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:09:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona
+https://t.co/rPkNxdRD6a</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:09:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>PENGALAMAN AKU BELAJAR TATAP MUKA DENGAN BU GURU DAN TEMAN2 SEKELAS DI S... https://t.co/XQYmRTzcYR via @YouTube #belajaronline #belajardirumah #belajardarirumah #sdnmandiri1cimahi #sdncibabatmandiri1cimahi</t>
+  </si>
+  <si>
+    <t>upwayyy</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 03:05:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Supaya semangat #BelajarDariRumah,awali hari dengan minum jus segar, yuk!
+Konon katanya, jus segar mampu membakar lemak lho.Mitos atau fakta, ya? Temukan jawaban sebenarnya, kunjungi:https://t.co/jQSGbhgRZ3.
+#HJGenerik #HexpharmJaya #HarusJeli #InfoKesehatan #Jus #FaktaJus https://t.co/nf4mkZS5sY</t>
+  </si>
+  <si>
+    <t>HjGenerik</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 02:47:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Selasa, 12 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/A3nEYPUVzz</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 01:42:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Selasa, 12 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/NAzF0UEFR6</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 00:25:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pagi #SahabatPerpusdikbud ,yuk kita simak jadwal belajar dari rumah di @TVRINasional hari ini.
+Jangan lupa sarapan dan persiapkan alat tulisnya ya.
+Selamat belajar #SahabatPerpusdikbud!
+#Perpusdikbud
+#merdekabelajar
+#belajardarirumah
+#bersamahadapikorona https://t.co/aC2RrhQc8a</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 00:17:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI JAWABAN SOAL TVRI KELAS 3 SD HARI INI 12 JANUARI 2021, TUGAS TVRI EPISODE 7: PERANG ARMADA
+#Belajardarirumah #TribunKaltim 
+https://t.co/rKfiHgfa6E</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 00:06:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Yuk, bersiap untuk belajar kembali! Mari simak jadwal tayang #BelajardariRumah di @TVRINasional untuk hari ini!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/d6Oe0lHn1g</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 23:32:50 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -4260,10 +4840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E464"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I462" sqref="I462"/>
+    <sheetView tabSelected="1" topLeftCell="A529" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M538" sqref="M538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10772,6 +11352,1028 @@
         <v>792</v>
       </c>
     </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>1.3508012047716349E+18</v>
+      </c>
+      <c r="B465" t="s">
+        <v>901</v>
+      </c>
+      <c r="C465" t="s">
+        <v>5</v>
+      </c>
+      <c r="D465" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>1.35080119777133E+18</v>
+      </c>
+      <c r="B466" t="s">
+        <v>903</v>
+      </c>
+      <c r="C466" t="s">
+        <v>5</v>
+      </c>
+      <c r="D466" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>1.3507522225361101E+18</v>
+      </c>
+      <c r="B467" t="s">
+        <v>905</v>
+      </c>
+      <c r="C467" t="s">
+        <v>631</v>
+      </c>
+      <c r="D467" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>1.3503898350186409E+18</v>
+      </c>
+      <c r="B468" t="s">
+        <v>907</v>
+      </c>
+      <c r="C468" t="s">
+        <v>631</v>
+      </c>
+      <c r="D468" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>1.3503736960498281E+18</v>
+      </c>
+      <c r="B469" t="s">
+        <v>909</v>
+      </c>
+      <c r="C469" t="s">
+        <v>267</v>
+      </c>
+      <c r="D469" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1.350373610964226E+18</v>
+      </c>
+      <c r="B470" t="s">
+        <v>911</v>
+      </c>
+      <c r="C470" t="s">
+        <v>267</v>
+      </c>
+      <c r="D470" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>1.3503735542278551E+18</v>
+      </c>
+      <c r="B471" t="s">
+        <v>913</v>
+      </c>
+      <c r="C471" t="s">
+        <v>267</v>
+      </c>
+      <c r="D471" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>1.350345767525908E+18</v>
+      </c>
+      <c r="B472" t="s">
+        <v>915</v>
+      </c>
+      <c r="C472" t="s">
+        <v>916</v>
+      </c>
+      <c r="D472" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>1.3500996978017239E+18</v>
+      </c>
+      <c r="B473" t="s">
+        <v>918</v>
+      </c>
+      <c r="C473" t="s">
+        <v>234</v>
+      </c>
+      <c r="D473" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>1.3500874553371121E+18</v>
+      </c>
+      <c r="B474" t="s">
+        <v>920</v>
+      </c>
+      <c r="C474" t="s">
+        <v>921</v>
+      </c>
+      <c r="D474" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>1.349933989998391E+18</v>
+      </c>
+      <c r="B475" t="s">
+        <v>923</v>
+      </c>
+      <c r="C475" t="s">
+        <v>267</v>
+      </c>
+      <c r="D475" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>1.3499339288329091E+18</v>
+      </c>
+      <c r="B476" t="s">
+        <v>925</v>
+      </c>
+      <c r="C476" t="s">
+        <v>267</v>
+      </c>
+      <c r="D476" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>1.3499338733002921E+18</v>
+      </c>
+      <c r="B477" t="s">
+        <v>927</v>
+      </c>
+      <c r="C477" t="s">
+        <v>267</v>
+      </c>
+      <c r="D477" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>1.3499338272050629E+18</v>
+      </c>
+      <c r="B478" t="s">
+        <v>929</v>
+      </c>
+      <c r="C478" t="s">
+        <v>267</v>
+      </c>
+      <c r="D478" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1.3499337712947981E+18</v>
+      </c>
+      <c r="B479" t="s">
+        <v>931</v>
+      </c>
+      <c r="C479" t="s">
+        <v>267</v>
+      </c>
+      <c r="D479" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>1.3499337143236201E+18</v>
+      </c>
+      <c r="B480" t="s">
+        <v>933</v>
+      </c>
+      <c r="C480" t="s">
+        <v>267</v>
+      </c>
+      <c r="D480" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>1.3499191212410429E+18</v>
+      </c>
+      <c r="B481" t="s">
+        <v>935</v>
+      </c>
+      <c r="C481" t="s">
+        <v>26</v>
+      </c>
+      <c r="D481" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>1.3498622574511429E+18</v>
+      </c>
+      <c r="B482" t="s">
+        <v>937</v>
+      </c>
+      <c r="C482" t="s">
+        <v>5</v>
+      </c>
+      <c r="D482" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>1.3497365655646001E+18</v>
+      </c>
+      <c r="B483" t="s">
+        <v>939</v>
+      </c>
+      <c r="C483" t="s">
+        <v>8</v>
+      </c>
+      <c r="D483" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>1.3497332783795121E+18</v>
+      </c>
+      <c r="B484" t="s">
+        <v>941</v>
+      </c>
+      <c r="C484" t="s">
+        <v>11</v>
+      </c>
+      <c r="D484" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>1.3497204269858691E+18</v>
+      </c>
+      <c r="B485" t="s">
+        <v>943</v>
+      </c>
+      <c r="C485" t="s">
+        <v>944</v>
+      </c>
+      <c r="D485" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>1.3497071593788831E+18</v>
+      </c>
+      <c r="B486" t="s">
+        <v>946</v>
+      </c>
+      <c r="C486" t="s">
+        <v>267</v>
+      </c>
+      <c r="D486" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>1.349655590147039E+18</v>
+      </c>
+      <c r="B487" t="s">
+        <v>948</v>
+      </c>
+      <c r="C487" t="s">
+        <v>949</v>
+      </c>
+      <c r="D487" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>1.3496360665469089E+18</v>
+      </c>
+      <c r="B488" t="s">
+        <v>951</v>
+      </c>
+      <c r="C488" t="s">
+        <v>952</v>
+      </c>
+      <c r="D488" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>1.3496144562259761E+18</v>
+      </c>
+      <c r="B489" t="s">
+        <v>954</v>
+      </c>
+      <c r="C489" t="s">
+        <v>270</v>
+      </c>
+      <c r="D489" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>1.3495825821663759E+18</v>
+      </c>
+      <c r="B490" t="s">
+        <v>956</v>
+      </c>
+      <c r="C490" t="s">
+        <v>267</v>
+      </c>
+      <c r="D490" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>1.3495825250022559E+18</v>
+      </c>
+      <c r="B491" t="s">
+        <v>958</v>
+      </c>
+      <c r="C491" t="s">
+        <v>267</v>
+      </c>
+      <c r="D491" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>1.3495824740707451E+18</v>
+      </c>
+      <c r="B492" t="s">
+        <v>960</v>
+      </c>
+      <c r="C492" t="s">
+        <v>267</v>
+      </c>
+      <c r="D492" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>1.349527983426466E+18</v>
+      </c>
+      <c r="B493" t="s">
+        <v>962</v>
+      </c>
+      <c r="C493" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>1.3495007885030559E+18</v>
+      </c>
+      <c r="B494" t="s">
+        <v>964</v>
+      </c>
+      <c r="C494" t="s">
+        <v>5</v>
+      </c>
+      <c r="D494" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>1.3494303780968609E+18</v>
+      </c>
+      <c r="B495" t="s">
+        <v>966</v>
+      </c>
+      <c r="C495" t="s">
+        <v>267</v>
+      </c>
+      <c r="D495" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>1.3493707867469371E+18</v>
+      </c>
+      <c r="B496" t="s">
+        <v>968</v>
+      </c>
+      <c r="C496" t="s">
+        <v>11</v>
+      </c>
+      <c r="D496" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>1.3493397420059689E+18</v>
+      </c>
+      <c r="B497" t="s">
+        <v>970</v>
+      </c>
+      <c r="C497" t="s">
+        <v>971</v>
+      </c>
+      <c r="D497" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>1.3493311173424819E+18</v>
+      </c>
+      <c r="B498" t="s">
+        <v>973</v>
+      </c>
+      <c r="C498" t="s">
+        <v>17</v>
+      </c>
+      <c r="D498" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>1.3493053247888059E+18</v>
+      </c>
+      <c r="B499" t="s">
+        <v>975</v>
+      </c>
+      <c r="C499" t="s">
+        <v>120</v>
+      </c>
+      <c r="D499" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>1.349280030346646E+18</v>
+      </c>
+      <c r="B500" t="s">
+        <v>977</v>
+      </c>
+      <c r="C500" t="s">
+        <v>978</v>
+      </c>
+      <c r="D500" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>1.3492347248253911E+18</v>
+      </c>
+      <c r="B501" t="s">
+        <v>980</v>
+      </c>
+      <c r="C501" t="s">
+        <v>978</v>
+      </c>
+      <c r="D501" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>1.3492196235190799E+18</v>
+      </c>
+      <c r="B502" t="s">
+        <v>982</v>
+      </c>
+      <c r="C502" t="s">
+        <v>978</v>
+      </c>
+      <c r="D502" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>1.3491910558208E+18</v>
+      </c>
+      <c r="B503" t="s">
+        <v>984</v>
+      </c>
+      <c r="C503" t="s">
+        <v>985</v>
+      </c>
+      <c r="D503" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>1.3491553944975649E+18</v>
+      </c>
+      <c r="B504" t="s">
+        <v>987</v>
+      </c>
+      <c r="C504" t="s">
+        <v>120</v>
+      </c>
+      <c r="D504" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>1.3491547555122501E+18</v>
+      </c>
+      <c r="B505" t="s">
+        <v>989</v>
+      </c>
+      <c r="C505" t="s">
+        <v>120</v>
+      </c>
+      <c r="D505" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>1.3491481871398221E+18</v>
+      </c>
+      <c r="B506" t="s">
+        <v>991</v>
+      </c>
+      <c r="C506" t="s">
+        <v>365</v>
+      </c>
+      <c r="D506" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>1.3491366177814321E+18</v>
+      </c>
+      <c r="B507" t="s">
+        <v>993</v>
+      </c>
+      <c r="C507" t="s">
+        <v>5</v>
+      </c>
+      <c r="D507" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>1.349061120984715E+18</v>
+      </c>
+      <c r="B508" t="s">
+        <v>995</v>
+      </c>
+      <c r="C508" t="s">
+        <v>996</v>
+      </c>
+      <c r="D508" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>1.349048748790346E+18</v>
+      </c>
+      <c r="B509" t="s">
+        <v>998</v>
+      </c>
+      <c r="C509" t="s">
+        <v>999</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>1.3490102279376159E+18</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C510" t="s">
+        <v>8</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>1.349008393281929E+18</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C511" t="s">
+        <v>11</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>1.3489694626496881E+18</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C512" t="s">
+        <v>17</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>1.3489424231629819E+18</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>1.348860241581023E+18</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C514" t="s">
+        <v>267</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>1.3488601093093701E+18</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C515" t="s">
+        <v>267</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>1.348860010856542E+18</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C516" t="s">
+        <v>267</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>1.3488597908610911E+18</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C517" t="s">
+        <v>267</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>1.34885974817987E+18</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C518" t="s">
+        <v>267</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>1.348859658140746E+18</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C519" t="s">
+        <v>267</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>1.3488595953351639E+18</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C520" t="s">
+        <v>267</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>1.3488595401130271E+18</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C521" t="s">
+        <v>267</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>1.3488284845885891E+18</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>1.3488239857446131E+18</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>1.3488074810283461E+18</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C524" t="s">
+        <v>8</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>1.348788241005044E+18</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C525" t="s">
+        <v>11</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>1.3487862054506209E+18</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C526" t="s">
+        <v>365</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>1.3487834749335959E+18</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C527" t="s">
+        <v>26</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>1.34877490282899E+18</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C528" t="s">
+        <v>5</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>1.348615895803945E+18</v>
+      </c>
+      <c r="B529" t="s">
+        <v>846</v>
+      </c>
+      <c r="C529" t="s">
+        <v>847</v>
+      </c>
+      <c r="D529" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>1.3486121207584151E+18</v>
+      </c>
+      <c r="B530" t="s">
+        <v>849</v>
+      </c>
+      <c r="C530" t="s">
+        <v>847</v>
+      </c>
+      <c r="D530" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>1.3486012705636109E+18</v>
+      </c>
+      <c r="B531" t="s">
+        <v>851</v>
+      </c>
+      <c r="C531" t="s">
+        <v>17</v>
+      </c>
+      <c r="D531" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>1.3485945045935099E+18</v>
+      </c>
+      <c r="B532" t="s">
+        <v>853</v>
+      </c>
+      <c r="C532" t="s">
+        <v>847</v>
+      </c>
+      <c r="D532" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>1.3485374164081869E+18</v>
+      </c>
+      <c r="B533" t="s">
+        <v>855</v>
+      </c>
+      <c r="C533" t="s">
+        <v>856</v>
+      </c>
+      <c r="D533" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>1.3484675229666749E+18</v>
+      </c>
+      <c r="B534" t="s">
+        <v>858</v>
+      </c>
+      <c r="C534" t="s">
+        <v>769</v>
+      </c>
+      <c r="D534" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>1.348440763005194E+18</v>
+      </c>
+      <c r="B535" t="s">
+        <v>860</v>
+      </c>
+      <c r="C535" t="s">
+        <v>26</v>
+      </c>
+      <c r="D535" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>1.3484297570130619E+18</v>
+      </c>
+      <c r="B536" t="s">
+        <v>862</v>
+      </c>
+      <c r="C536" t="s">
+        <v>8</v>
+      </c>
+      <c r="D536" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>1.34842933720941E+18</v>
+      </c>
+      <c r="B537" t="s">
+        <v>864</v>
+      </c>
+      <c r="C537" t="s">
+        <v>11</v>
+      </c>
+      <c r="D537" t="s">
+        <v>865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1175">
   <si>
     <t>id</t>
   </si>
@@ -4475,6 +4475,582 @@
   </si>
   <si>
     <t>Mon Jan 11 23:32:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pulang Pergi
+https://t.co/GVGKlEm5GD
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 10:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>• PULANG •
+https://t.co/G0d5KeILAG
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berbeda tidak membuat kita berpisah..
+tetapi membuat perbedaan yang akan memisahkan kita...
+.
+.
+#BDTBT #PPSDMGeominerba #KESDM #UndergroundMining #Sawahlunto #EnergiBerkeadilan  #kotawisatatambang #TahukahAnda #Geopark #UNESCO #Covid19 #lawancorona #belajardarirumah https://t.co/uicgHySugT</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:12:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>• PERGI • https://t.co/6R27YqTau5
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Panduan Cepat Belajar HTML, PHP &amp;amp; MYSQL https://t.co/c9qY1GGnUY
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #cucitangan #lawancovid19 #ingatpesanibujagajarak #bacabuku #VaksinBiarTenang #VaksinasiNasional #VaksinYoVaksin #SeninSibuk #kerjadarirumah</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 07:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #belajar #belajardarirumah #school2021 #schooldays #school #viral #viralkan #news #newsupdate #BeritaTerkini #beritanasional #COVID19 #COVIDー19 #COVID #Covid_19 #coronavirus #VirusCorona #virus https://t.co/wHIGIw19tM</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 04:25:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #belajar #belajardarirumah #school2021 #schooldays #school #viral #viralkan #news #newsupdate #BeritaTerkini #beritanasional #COVID19 #COVIDー19 #COVID #Covid_19 #coronavirus #VirusCorona #virus
+https://t.co/5fklZVJiXM</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 04:25:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #belajar #belajardarirumah #school2021 #schooldays #school #viral #viralkan #news #newsupdate #BeritaTerkini #beritanasional #COVID19 #COVIDー19 #COVID #Covid_19 #coronavirus #VirusCorona #virus https://t.co/b0XiZsk4qL</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 04:24:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #belajar #belajardarirumah #school2021 #schooldays #school #viral #viralkan #news #newsupdate #BeritaTerkini #beritanasional #COVID19 #COVIDー19 #COVID #Covid_19 #coronavirus #VirusCorona #virus 
+https://t.co/rHMBdN0rWt</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 04:24:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>#SahabatPerpusdikbud membutuhkan bahan referensi dalam bentuk artikel jurnal ilmiah atau publikasi ilmiah lainnya?Ajukan permohonanmu ke #Perpusdikbud melalui pos-el perpustakaan@kemdikbud.go.id, dgn mencantumkan judul artikel, nama penulis,&amp;amp;nomor DOI.
+#BelajarDariRumah https://t.co/1OV9jt4bvd</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 02:02:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Jumat, 22 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/sJ9Q6z7NQ1</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 00:32:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah   menyiapkan catatan dan alat tulismu? Yuk, belajar bersama program #BelajardariRumah di @tvrinasional. Simak jadwal tayang untuk hari ini, ya! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/B6632qWo5u</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 23:06:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Jumat, 22 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/wstZkaFcUj</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 15:05:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dongeng Balita: Mengambil Bulan dan 7 Dongeng Seru Lainnya
+https://t.co/ns6cORUel8
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTangan #lawancovid19 #diskonbuku #bukubaru #dirumahsaja #ingatpesanibu #jagakesehatan #VaksinasiNasional #VaksinYuk</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 10:00:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Penaklukan Muslim yang Mengubah Dunia
+https://t.co/E5ZqxqLU9J
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTangan #lawancovid19 #diskonbuku #bukubaru #dirumahsaja #VaksinCovid19 #ingatpesanibu #VaksinYuk #vaksincorona #patuhiprotokolkesehatan</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 09:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ratu yang Bersujud
+https://t.co/bw7V21O8ux
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #diskonbuku #bukubaru #dirumahsaja #VaksinCovid19 #ingatpesanibujagajarak #VaksinYuk #BersamaLawanCorona #patuhiprotokolkesehatan</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 08:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Manajemen Leha-Leha
+https://t.co/w5IyThMuUE
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #diskonbuku #bukubaru #dirumahsaja #VaksinCovid19 #ingatpesanibujagajarak  #jagakesehatan #VaksinasiNasional #VaksinYuk #Kamis</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 07:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selama masa pandemi kegiatan belajar dilakukan secara daring. Ada banyak platform belajar, namum Udinus punya platform sendiri yaitu Kulino. Apa itu kulino? Mari simak vidionya
+#udinus
+#ilmukomunikasi
+#ilkom
+#kulino
+#kuliahonline 
+#kampushits 
+#belajardarirumah 
+#pandemic https://t.co/KZyNsTzPqw</t>
+  </si>
+  <si>
+    <t>faisolrifai_</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 06:07:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Panduan Sehari-hari Kaum Introver dan Mager
+https://t.co/jb86ERDqCE
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #diskonbuku #bukubaru #dirumahsaja #VaksinCovid19 #ingatpesanibujagajarak  #jagakesehatan #VaksinYuk</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 06:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajar #belajardarirumah #schooldays #school #schools #berita #BeritaTerkini #beritaViral #beritanasional #news #NewsUpdate #COVID19 #COVIDー19 #COVID https://t.co/KNpnYQHOUR</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 05:19:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajar #belajardarirumah #schooldays #school #schools #berita #BeritaTerkini #beritaViral #beritanasional #news #NewsUpdate #COVID19 #COVIDー19 #COVID https://t.co/QNael9Oorw</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 05:18:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajar #belajardarirumah #schooldays #school #schools #berita #BeritaTerkini #beritaViral #beritanasional #news #NewsUpdate #COVID19 #COVIDー19 #COVID
+https://t.co/lZtO9t5BUA</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 05:18:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#belajar #belajardarirumah #schooldays #school #schools #berita #BeritaTerkini #beritaViral #beritanasional #news #NewsUpdate #COVID19 #COVIDー19 #COVID 
+https://t.co/cQdM4su88S</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 05:18:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah siap untuk belajar dan beraktivitas sepanjang hari ini? Yuk, simak jadwal tayang program #BelajardariRumah di @tvrinasional untuk hari Kamis, 21 Januari 2021! #MerdekaBelajar. #BersamaHadapiKorona. #DiRumahSaja</t>
+  </si>
+  <si>
+    <t>AyuSalmila</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 02:26:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah siap untuk belajar dan beraktivitas sepanjang hari ini? Yuk, simak jadwal tayang program #BelajardariRumah di @tvrinasional untuk hari Kamis, 21 Januari 2021!
+#MerdekaBelajar
+#BersamaHadapiKorona
+#DiRumahSaja https://t.co/VNed5p8jhX</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 23:09:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Kamis, 21 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/ald9lUDmcl</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 15:24:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Kamis, 21 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/pndBe0uZC5</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 15:05:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi pernah mempelajari tentang teori evolusi Darwin?
+Dalam bukunya, teori Darwin menyatakan bahwa organisme dapat berevolusi secara bertahap melalui proses 'seleksi alam'. 
+#BelajarBarengIndiHomeStudy #BelajarDariRumah #dirumahaja #IPASMA #BiologiSMA #TeoriEvolusiDarwin https://t.co/9P7HGfIn0V</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 12:55:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>~Wuhan Diary~
+https://t.co/OXK0stN5ux
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #bacabuku #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahsaja #VaksinasiNasional  #ingatpesanibu #jagakesehatan #ProtokolKesehatan</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 04:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Rabu, 20 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/RW6A3NUQck</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 01:22:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Yuk, persiapkan diri untuk kembali belajar pagi ini! Mari simak jadwal tayang #BelajardariRumah di @tvrinasional untuk hari ini, Rabu, 20 Januari 2021! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/o9wIY9Nu4e</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 23:15:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kegiatan Muroja'ah dan Motivasi Ibadah Live Zoom kelas 1 (ABC) SD Asy-Syifa 1 Bandung 
+Selasa, 19 Januari 2021 
+Muroja'ah Q.S Al-Kafirun s.d Q.S Al-Fil 
+#sdasysyifa1bandung #sdswastabandung #pembiasaan #belajardarirumah #disdikkotabandung #bandung https://t.co/UCxV38tjoq</t>
+  </si>
+  <si>
+    <t>sdasysyifa1</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 22:17:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Rabu, 20 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/abUcWSxl27</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 15:05:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sang Jenderal di Dalam Labirinnya (The General In His Labyrinth)
+https://t.co/cxbxvdtVca
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #bacabuku #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahsaja #vaksincovid19</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 13:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Apakah Kau Takut Gelap? (Are You Afraid of The Dark) 
+https://t.co/qx1o1INN81
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibu #bacabuku #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja #vaksincovid19</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 13:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buanglah Hajat Pada Tempatnya
+https://t.co/HY9TGsfJIA
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibu #bacabuku #VaksinasiDimulai  #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja #vaksincovid19</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 12:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kisah Tanah Jawa : Tikungan Maut
+https://t.co/1PvRN90cRp
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibu #bacabuku #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja #vaksincovid19 #seninsemangat</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 11:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jika Kita Tak Pernah Jatuh Cinta
+https://t.co/vmqyOb29Ca
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #VaksinasiNasional #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 11:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jika Kita Tak Pernah Jadi Apa-Apa
+https://t.co/00tnSPJ1gN
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksincovid19  #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 10:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajar #belajardarirumah #viral #viralkan #news #newsupdate #berita #beritaterkini #beritaviral #NEWSUPDATE #news https://t.co/m3GNsUt496</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:41:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajar #belajardarirumah #viral #viralkan #news #newsupdate #berita #beritaterkini #beritaviral #NEWSUPDATE #news https://t.co/qQesIqwZCV</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:40:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajar #belajardarirumah #viral #viralkan #news #newsupdate #berita #beritaterkini #beritaviral #NEWSUPDATE #news https://t.co/ViQCR7UZPa</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:40:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#sekolah #school #belajar #belajardarirumah #viral #viralkan #news #newsupdate #berita #beritaterkini #beritaviral #NEWSUPDATE #news 
+https://t.co/V7KamRgUZ2</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:39:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Breaking The Spell: Agama sebagai Fenomena Alam
+https://t.co/uH0KB1fad2
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #VaksinasiNasional #diskonbuku #bukubaru #bersamacegahcovid19</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sebuah Seni untuk Bersikap Bodo Amat
+https://t.co/WvZi7mhHBq
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #VaksinasiNasional #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 01:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah siap belajar kembali pagi ini? Yuk, simak jadwal tayang program #BelajardariRumah di @tvrinasional untuk hari ini, Selasa, 19 Januari 2021! 
+#MerdekaBelajar
+#BersamaHadapiKorona
+#DiRumahSaja https://t.co/Rv55xmZzEA</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 23:58:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pagi #SahabatPerpusdikbud , ayo kita simak jadwal belajar dari rumah di @TVRINasional hari ini.
+Siapkan diri dan alat tulisnya ya,jika kalian ingin mengajak orang tua untuk mendampingi belajar boleh loh.
+Selamat belajar!
+#merdekabelajar
+#belajardarirumah
+#bersamahadapikorona https://t.co/RXZmbfTARk</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 23:06:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Selasa, 19 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/grluuq0tiN</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 15:31:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Selasa, 19 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/CvVmCE1yh7</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 15:05:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pulang Pergi
+https://t.co/9xoYkEdEP1
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 06:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>PULANG
+https://t.co/ys7xIFGrb4
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 06:15:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>PERGI https://t.co/opEQqz8Nbn
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 06:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jika Kita Tak Pernah Baik-Baik Saja
+https://t.co/1QRNez7QL9  
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #bukumurah</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 05:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI JAWABAN SOAL TVRI KELAS 4 SD HARI INI 18 JANUARI 2021, TUGAS TVRI EPISODE 11: GAYA GERAK DORONG DAN TARIK
+#belajardarirumah #TVRI #TribunKaltim
+https://t.co/kVgSExXWnO</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 03:18:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>#sahabatpauddikmasdiy, Panduan Pembelajaran Program Belajar dari Rumah Kemdikbud di TVRI (18-22 Januari 2021) dapat diunduh pada laman https://t.co/bOmI14e8m9.
+Tetap semangat belajar dari rumah dan selalu jaga kesehatan.
+#BelajarDariRumah
+#BersamaBerkaryaJaya https://t.co/kQFZ7iHVS1</t>
+  </si>
+  <si>
+    <t>bppauddikmasdiy</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 03:16:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kiai Menggugat Gus Dur Menjawab
+https://t.co/jplJtcbupx 
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #cucitangan #lawancovid19 #ingatpesanibujagajarak #bacabuku #VaksinBiarTenang #VaksinasiNasional #VaksinYoVaksin #kerjadarirumah #kuotamurah</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 03:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>#BelajarDariRumah #BelajarDiTVRI |
+PROGRAM belajar dari rumah atau belajar di TVRI tahun 2021 dilanjutkan khusus untuk jenjang pendidikan PAUD dan Sekolah Dasar (SD).
+https://t.co/7Pew1KWonm</t>
+  </si>
+  <si>
+    <t>serambinews</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 02:04:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Panduan Cepat Belajar HTML, PHP &amp;amp; MYSQL https://t.co/q27R6paOvy
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #cucitangan #lawancovid19 #ingatpesanibujagajarak #bacabuku #VaksinBiarTenang #VaksinasiNasional #VaksinYoVaksin #SeninSibuk #kerjadarirumah</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 02:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>@izzaire15 Hai guys, sesiapa kat sini nak belajar mengaji online?? 
+Boleh tekan link di bawah 🔽
+https://t.co/v6yCzKd3ml
+#KelasMengajiOnline #kelasmengaji
+#belajardarirumah #digitaleducation
+Mintak tolong panjangkan tweet ni ye. Terima kasih https://t.co/zb8WaJMLVE</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 01:58:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI JAWABAN TEMA 5 KELAS 2 HALAMAN 68 69 70 71 72 73 74, BUKU TEMATIK: PENGALAMANKU DI SEKOLAH
+#Belajardarirumah #TribunKaltim
+https://t.co/maAZMQctWf</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 01:37:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program Belajar dari Rumah di TVRI Minggu Ketiga Tahun 2021.
+#unggahulang #belajardarirumah
+#kemdikbud #lpmpkepri #kawanlpmpkepri https://t.co/TGlD9emrFh</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 01:07:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawabannya adalah Cinta
+https://t.co/xwG03Ko7GM
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #pagipagi #bersamalawancovid19</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 01:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Senin, 18 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/AoIBrGcZsc</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 00:04:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Senin, 18 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/52Z8pRXTx3</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 16:05:10 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -4840,10 +5416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:E604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M538" sqref="M538"/>
+    <sheetView tabSelected="1" topLeftCell="A592" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I613" sqref="I613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12374,6 +12950,944 @@
         <v>865</v>
       </c>
     </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>1.3525566179974139E+18</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C538" t="s">
+        <v>631</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>1.3525490627892549E+18</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C539" t="s">
+        <v>631</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>1.3525446844852101E+18</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C540" t="s">
+        <v>270</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>1.352541512576479E+18</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C541" t="s">
+        <v>631</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>1.352511314774655E+18</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C542" t="s">
+        <v>631</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>1.3524724533778959E+18</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C543" t="s">
+        <v>267</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>1.3524723808917499E+18</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C544" t="s">
+        <v>267</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>1.352472289590325E+18</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C545" t="s">
+        <v>267</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>1.35247223462398E+18</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C546" t="s">
+        <v>267</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>1.352436378248704E+18</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C547" t="s">
+        <v>365</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>1.3524138991448471E+18</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C548" t="s">
+        <v>8</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>1.352392163640791E+18</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C549" t="s">
+        <v>5</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>1.3522710175284549E+18</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C550" t="s">
+        <v>11</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>1.3521942323084941E+18</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C551" t="s">
+        <v>631</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>1.3521791304570591E+18</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C552" t="s">
+        <v>631</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>1.3521640261180951E+18</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C553" t="s">
+        <v>631</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>1.3521489299499251E+18</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C554" t="s">
+        <v>631</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>1.3521358296326879E+18</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>1.3521338267309299E+18</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C556" t="s">
+        <v>631</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>1.3521235771899991E+18</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C557" t="s">
+        <v>267</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>1.352123482952364E+18</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C558" t="s">
+        <v>267</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>1.352123436273983E+18</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C559" t="s">
+        <v>267</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>1.3521233237953001E+18</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C560" t="s">
+        <v>267</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>1.352080160879735E+18</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>1.352030571124257E+18</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C562" t="s">
+        <v>5</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>1.3519135571813619E+18</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C563" t="s">
+        <v>8</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>1.3519086305436749E+18</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C564" t="s">
+        <v>11</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>1.3518760201739021E+18</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C565" t="s">
+        <v>17</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>1.351741241159946E+18</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C566" t="s">
+        <v>631</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>1.3517014840653289E+18</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C567" t="s">
+        <v>8</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>1.35166967206461E+18</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C568" t="s">
+        <v>5</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>1.3516549712891369E+18</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>1.351546235820384E+18</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C570" t="s">
+        <v>11</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>1.351522297216201E+18</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C571" t="s">
+        <v>631</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>1.3515147530264289E+18</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C572" t="s">
+        <v>631</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>1.351499654433804E+18</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C573" t="s">
+        <v>631</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>1.351492099259199E+18</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C574" t="s">
+        <v>631</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>1.3514845505479601E+18</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C575" t="s">
+        <v>631</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>1.3514694485034189E+18</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C576" t="s">
+        <v>631</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>1.3514193750314429E+18</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C577" t="s">
+        <v>267</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>1.3514193197841001E+18</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C578" t="s">
+        <v>267</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>1.351419134685323E+18</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C579" t="s">
+        <v>267</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>1.351419068595671E+18</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C580" t="s">
+        <v>267</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>1.351409053008863E+18</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C581" t="s">
+        <v>631</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>1.351333552818967E+18</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C582" t="s">
+        <v>631</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>1.3513181281861261E+18</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C583" t="s">
+        <v>5</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>1.3513050152735501E+18</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C584" t="s">
+        <v>365</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>1.3511904250386839E+18</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C585" t="s">
+        <v>8</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>1.3511838374984051E+18</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C586" t="s">
+        <v>11</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>1.3510542124200351E+18</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C587" t="s">
+        <v>631</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>1.351050437420585E+18</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C588" t="s">
+        <v>631</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>1.351046663633207E+18</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C589" t="s">
+        <v>631</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>1.3510315657829289E+18</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C590" t="s">
+        <v>631</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>1.351005923951735E+18</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C591" t="s">
+        <v>26</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>1.3510054741629261E+18</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>1.3510013663790369E+18</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C593" t="s">
+        <v>631</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>1.350987413854826E+18</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>1.350986265857036E+18</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C595" t="s">
+        <v>631</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>1.3509858085353139E+18</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C596" t="s">
+        <v>921</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>1.3509806206845581E+18</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C597" t="s">
+        <v>26</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>1.3509730680936451E+18</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C598" t="s">
+        <v>23</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>1.3509711673901381E+18</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C599" t="s">
+        <v>631</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>1.3509573028457311E+18</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C600" t="s">
+        <v>8</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>1.3508365693184079E+18</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C601" t="s">
+        <v>11</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>1.3508012047716349E+18</v>
+      </c>
+      <c r="B602" t="s">
+        <v>901</v>
+      </c>
+      <c r="C602" t="s">
+        <v>5</v>
+      </c>
+      <c r="D602" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>1.35080119777133E+18</v>
+      </c>
+      <c r="B603" t="s">
+        <v>903</v>
+      </c>
+      <c r="C603" t="s">
+        <v>5</v>
+      </c>
+      <c r="D603" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>1.3507522225361101E+18</v>
+      </c>
+      <c r="B604" t="s">
+        <v>905</v>
+      </c>
+      <c r="C604" t="s">
+        <v>631</v>
+      </c>
+      <c r="D604" t="s">
+        <v>906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 2. #belajardarirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1313">
   <si>
     <t>id</t>
   </si>
@@ -5051,6 +5051,570 @@
   </si>
   <si>
     <t>Sun Jan 17 16:05:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Naaaah coba tes skill nulis aksara jawamu disini. Tulis jawabannya di komen yak. Yang bener semua ntar dapet sun sayang deh dari kita.
+#kelaspedia #kelasonline #BelajarDariRumah #whatsapp https://t.co/pt6jkN8Dnd</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 10:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Masih Belajar dari Rumah, Are You Oke? #belajardarirumah https://t.co/6lF0y175bh</t>
+  </si>
+  <si>
+    <t>adjatwiratma</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 09:27:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kelas mana yang jadi pilhanmu? Mau tanya tanya dulu leh uga nih, langsung kontak aja Pretty (085900399789) atau Prita (081326022789) 
+https://t.co/kkKnA0kW4w
+Follow IG :
+https://t.co/AMqObmHep4…
+https://t.co/wy58LWkoav…
+#kelaspedia #kelasonline #BelajarDariRumah #WhatsApp https://t.co/76QuDEeuZH</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:10:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus  https://t.co/yrcEQUiA8R</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:09:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus  https://t.co/U35qAmF36K</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:09:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus https://t.co/He5JCBCxsN</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:08:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus https://t.co/27zFQfhys3</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:08:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus https://t.co/0ZKYOz8AwY</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:08:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus 
+https://t.co/bYeuptReYT</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:08:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kelas mana yang jadi pilhanmu? Mau tanya tanya dulu leh uga nih, langsung kontak aja Pretty (085900399789) atau Prita (081326022789) 
+https://t.co/kkKnA0kW4w
+Follow IG :
+https://t.co/AMqObmHep4…
+https://t.co/wy58LWkoav…
+#kelaspedia #kelasonline #BelajarDariRumah #WhatsApp https://t.co/xUIOWLB2iM</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 06:46:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>LENGKAP Kunci Jawaban Tema 5 Kelas 2 SD/MI, Tentang Pengalamanku Halaman 208, 209, 210, 211 dan 213 https://t.co/Bafhqqxn8h
+#Kuncijawaban #Sekolah #Belajardarirumah</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 05:44:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Kemdikbud_RI @TVRINasional Tahukah kamu bahwa rapat R.T. pernah ada lagunya? #MerdekaBelajar #BelajardariRumah https://t.co/grzSsC3qaD</t>
+  </si>
+  <si>
+    <t>orangpelupa</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 04:23:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kedua film yang akan diluncurkan berjudul "Beragama Lintas Budaya" dan "Spiritualitas &amp;amp; Kelestarian Lingkungan". Dua film ini merupakan film ketiga dan keempat dari seri film pendek untuk menemani para siswa sekolah menengah #BelajarDariRumah.
+https://t.co/Ou8szsV1S7</t>
+  </si>
+  <si>
+    <t>crcsugm</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 03:54:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sebuah percakapan anak PAUD usia 4 tahun tentang #BelajardariRumah .
+ Sungguh yaa Bund, anak-anak mu 😂🤣 https://t.co/dfMtL1JCXm</t>
+  </si>
+  <si>
+    <t>denyk_</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 01:58:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Ada tayangan menarik apa saja pada program #BelajardariRumah di @TVRINasional hari ini? Yuk, simak jadwal acaranya! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/ktx8ACQx9R</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 23:01:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Kamis, 28 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/h4MVfYHxoz</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 21:50:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Kamis, 28 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/8e3xzve9eO</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 18:18:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi pernah membaca novel ataupun cerpen? Itu salah satu bentuk teks Naratif atau Narrative text ya.
+Narrative Text mempunyai 3 susunan struktur seperti yang ada pada gambar. 
+#BelajarBarengIndiHomeStudy #BelajarDariRumah #dirumahaja #BahasaInggrisSMA #NarrativeText https://t.co/vGMQQxUqwU</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 13:37:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalau kamu? Bagaimana pengalaman pembelajaran onlinemu?
+#RedNoseFoundation #BelajardariRumah #DiRumahAja https://t.co/7cxQd361PE</t>
+  </si>
+  <si>
+    <t>RNFRedNose</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:35:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran online tidak menurunkan semangat RNF untuk mencari hal-hal baru yang dapat meningkatkan semangat belajar anak-anak RNF. Nah salah satu cara yang dilakukan RNF adalah dengan menggunakan Quizizz.
+#RedNoseFoundation #BelajardariRumah https://t.co/FugP1l4QJy</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:30:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Siapa Yang Datang Ke Pemakamanku Saat Aku Mati Nanti?
+https://t.co/dUQ4TbMd4V
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #BersamaLawanCorona #dirumahaja</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ransel Mini Keliling Dunia
+https://t.co/fzfgM23MDV
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTangan #lawancovid19 #diskonbuku #bukubaru  #ingatpesanibu #VaksinYuk #BiarMakinPaham  #patuhiprotokolkesehatan #BersamaLawanCorona #IndonesiaMaju</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 05:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pekan depan Indonesian Pluralities (CRCS UGM, @watchdoc_ID, Pardee School of Global Studies - Boston Uni) dan Yayasan @cahayaguru akan meluncurkan dua film lagi dari seri #BelajarDariRumah. Dua film ini adalah kelanjutan dari dua film pertama yang meluncur Oktober tahun lalu.</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 03:26:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Jangan lewatkan sarapan sebelum memulai aktivitas hari ini, ya! Yuk, simak jadwal tayang #BelajardariRumah di @tvrinasional untuk hari ini, Rabu, 27 Januari 2021! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/OMmkZacaNY</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 23:36:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Rabu, 27 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/UhHkLkJiwc</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 22:37:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Rabu, 27 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/yuzIYH3KGJ</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 16:01:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pengen bisnismu cepat laku, tapi masih bingung gimana caranya?
+Simak obrolan Kelaspedia bersama Bernad Satriani di Skillers Talk. 
+#kelaspedia #kelasonline #belajaronline #belajardarirumah #selflearning #talkshow #digitalmarketing #bigdata #dataanalyst #skillerstalk https://t.co/kF3u3RUCAH</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 15:25:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>#GenPrestasi pernah menggunakan magnet?
+Kutub magnet bumi ada 2 yaitu kutub utara dan kutub selatan. 
+#BelajarBarengIndiHomeStudy #IndiHomeStudyByIndiHome #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #IPASMP #Magnet #sekolah #sekolahonline #TryOut https://t.co/pvMIlu0DYq</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 13:00:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI Jawaban Tema 6 Kelas 5 SD Halaman 64 Hingga 66 Pembelajaran 6, Tanggung Jawab Warga Negara #belajar #BelajardariRumah #BelajardiRumah
+Download aplikasi Tribunnews untuk update berita terbaru di: https://t.co/vVWLpleQXU
+https://t.co/JGrqdeEdf0</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:43:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI Jawaban Tema 6 Kelas 3 SD Halaman 162 - 168, Contoh Kegiatan yang Termasuk Pemborosan Energi #belajar #BelajardariRumah #BelajardiRumah #BelajarOnline #BelajarDaring
+Download aplikasi Tribunnews update berita terbaru di: https://t.co/vVWLpleQXU
+https://t.co/BsFlF4vpNr</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:13:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gelombang Mekanik : Pembahasan Soal dan Latihan Gelombang Longitudinal
+#GelombangMekanik #GelombangLongitudinal #SoalGelombangLongitudinal #PembahasanGelombangLongitudinal #BelajarDariRumah #PembelajaranDaring https://t.co/xryMSgRpsd</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 05:52:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>LENGKAP Kunci Jawaban Tema 7 Kelas 5 SD/MI, Buku Tematik Peristiwa Kebangsaan Hal 22 23 24 25 26 28 https://t.co/VcJbHieKXg
+#Belajardarirumah #Covid_19 #Sekolah #dirumahaja</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 05:24:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kiai Menggugat Gus Dur Menjawab
+https://t.co/zJxOx6d7gt 
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #cucitangan #lawancovid19 #ingatpesanibujagajarak #bacabuku #VaksinHalal  #VaksinasiNasional #VaksinYoVaksin #kerjadarirumah #GUSDURians #dirumahaja</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 04:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Selasa, 26 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI  https://t.co/SkGz5OP0uZ</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 03:25:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Selasa, 26 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/9ZMlv4MmrP</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 03:18:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawabannya adalah Cinta
+https://t.co/1jEmX51fVG
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #pagipagi #bersamalawancovid19</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 03:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sebuah Seni untuk Bersikap Bodo Amat
+https://t.co/Kg8jzzeFuU
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #VaksinasiNasional #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 02:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi, #SahabatDikbud. Sudah  siapkan catatan dan alat tulismu? Yuk,  simak jadwal tayang program #BelajardariRumah di @tvrinasional untuk hari ini, Selasa, 26 Januari 2021! Selamat belajar! 
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/lsquf44SlE</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 01:06:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Penasaran seperti apa inovasi mengaji dari mentor kita? 
+Ikuti Jagongan Hits Kelaspedia
+#kelaswhatsapp #onlineclass #dirumahaja #belajardarirumah #selflearning #talkshow #mengaji #kelaspedia #jagonganhits
+Follow IG :
+https://t.co/AMqObmHep4…
+https://t.co/wy58LWkoav… https://t.co/CXlwxTFi5h</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 13:40:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat Hari Gizi Nasional #GenPrestasi !
+#IndiHomeStudyByIndiHome #BelajarBarengIndiHomeStudy #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #HariGizi #HariGiziNasional https://t.co/GDew23tcEZ</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 11:48:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI JAWABAN Kelas 2 Tema 5, Buku Tematik SD / MI Cuaca Musim Hal 177 178 179 180 181 182 183 184 https://t.co/rrYKIYszCK
+#Covid_19 #Kemendikbud #Belajardarirumah</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 11:34:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#viral #viralkan #BeritaTerkini #beritaViral #berita #beritanasional #NewsUpdate #NewsUpdate #belajardarirumah #school2021 #schooldays #schools #school #COVID19 #Covid_19 #COVID https://t.co/MOoD9b305l</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:54:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#viral #viralkan #BeritaTerkini #beritaViral #berita #beritanasional #NewsUpdate #NewsUpdate #belajardarirumah #school2021 #schooldays #schools #school #COVID19 #Covid_19 #COVID  https://t.co/coEqT2ksZe</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:54:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#viral #viralkan #BeritaTerkini #beritaViral #berita #beritanasional #NewsUpdate #NewsUpdate #belajardarirumah #school2021 #schooldays #schools #school #COVID19 #Covid_19 #COVID https://t.co/abFCpU0TIe</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:53:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#viral #viralkan #BeritaTerkini #beritaViral #berita #beritanasional #NewsUpdate #NewsUpdate #belajardarirumah #school2021 #schooldays #schools #school #COVID19 #Covid_19 #COVID
+https://t.co/PNTg5j7Rrm</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:52:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#viral #viralkan #BeritaTerkini #beritaViral #berita #beritanasional #NewsUpdate #NewsUpdate #belajardarirumah #school2021 #schooldays #schools #school #COVID19 #Covid_19 #COVID https://t.co/7JowVrbAq4</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:51:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#viral #viralkan #BeritaTerkini #beritaViral #berita #beritanasional #NewsUpdate #NewsUpdate #belajardarirumah #school2021 #schooldays #schools #school #COVID19 #Covid_19 #COVID  https://t.co/WuJoSXoSWa</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:51:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#viral #viralkan #BeritaTerkini #beritaViral #berita #beritanasional #NewsUpdate #NewsUpdate #belajardarirumah #school2021 #schooldays #schools #school #COVID19 #Covid_19 #COVID https://t.co/4sUYV7EJxZ</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:51:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#viral #viralkan #BeritaTerkini #beritaViral #berita #beritanasional #NewsUpdate #NewsUpdate #belajardarirumah #school2021 #schooldays #schools #school #COVID19 #Covid_19 #COVID 
+https://t.co/LNldmjRYyy</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:50:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat Hari Gizi Nasional 
+Tingkatkan Kualitas Kesehatan Anak Indonesia
+#madaniaschool #earlyyears #ibworldschool #belajardarirumah
+#balanced #harigizidanmakanan2021 #paudmengubahdunia https://t.co/nXuldwRZzU</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 04:50:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>#SahabatPerpusdikbud ayo kita lihat Panduan Pembelajaran Program Belajar dari Rumah di @TVRINasional Minggu Keempat Tahun 2021 pada tautan  https://t.co/k89O520Sti
+#MerdekaBelajar #BelajardariRumah #BersamaHadapiKorona https://t.co/QItHfmTjLZ</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 02:58:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buanglah Hajat Pada Tempatnya
+https://t.co/mY8ITX5yvF
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibu #bacabuku #VaksinasiDimulai  #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja #Vaksin @riojohan</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 02:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Program Belajar dari Rumah di TVRI Minggu Keempat Tahun 2021.
+#unggahulang #belajardarirumah
+#kemdikbud #lpmpkepri #kawanlpmpkepri https://t.co/YenpqLPW5O</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 01:02:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bersyukur Tanpa Libur
+https://t.co/7TRAKjeeEb
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksincovid19  #diskonbuku #bukubaru #bersamacegahcovid19 #dirumahaja #seninsemangat</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 01:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Senin, 25 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#CharlesZoraZeeTylerMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/hwHXces03M</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 00:03:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH"
+📆 : Senin, 25 Januari 2021
+🕗 : 08.00-11.30 WIB
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : Hanya di TVRI
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/7xGq7Eh8dz</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 17:48:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk, simak juga jadwal tayang program #BelajardariRumah di @TVRINasional untuk hari Senin, 25 Januari 2021!
+#MerdekaBelajar
+#BersamaHadapiKorona https://t.co/1gqlk9EVbb</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 10:30:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>#SahabatDikbud, dapatkan Panduan Pembelajaran Program #BelajardariRumah di @TVRINasional Minggu ke-4 Tahun 2021 dengan mengunjungi 
+https://t.co/OKKEY0dlFm. 
+#MerdekaBelajar
+#BersamaHadapiKorona</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 10:30:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tahukah kamu #GenPrestasi kalau hari ini pada 1908, Robert Baden-Powell memulai gerakan pramuka.
+#IndiHomeStudyByIndiHome #BelajarBarengIndiHomeStudy #BelajarLebihMudah #BelajarTanpaBatas #BelajarDariRumah #dirumahaja #Pramuka https://t.co/llHikboCxq</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 09:29:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cuuus!!! Ke Luar Negeri Gratis Cuma Modal Hobi! 
+https://t.co/qABHIKNsbP
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibu #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadarirumah #bukubaru</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 02:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buat #GenPrestasi yang nggak mau ribet bolak-balik perpanjang paket IndiHome Study setiap bulan, beli paket 3 bulan aja yuk!
+#IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #PaketIndiHomeStudy https://t.co/155dOhRSS4</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 12:47:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Rahasia Sehat Rasulullah yang Tak Pernah Sakit
+https://t.co/4sDoCbA6EI
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTangan #lawancovid19 #diskonbuku #bukubaru #dirumahsaja #ingatpesanibu #jagakesehatan #VaksinasiNasional #VaksinYuk #malamminggu</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 12:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sukses Hidroponik Untuk Pemula
+https://t.co/iIPwdCks4N
+#TokoBuku #JualBuku #BeliBuku #belajardarirumah #pakaimasker #jagajarak #CuciTanganPakaiSabun #lawancovid19 #ingatpesanibujagajarak #bacabuku #vaksinasi #VaksinasiNasional #diskonbuku #kerjadirumah #bukubaru #dirumahaja</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 12:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>mirip sapa kalo kek gini 🤣😆🙈 
+bener2 bikin kocak perut liatin ekspresi wajahnya bwakakakk..
+•
+•
+#bermainplastisin #transportasiudara✈ #belajardarirumah #duckface #xpressyourself https://t.co/8RKDXyQ9Qw</t>
+  </si>
+  <si>
+    <t>finaafina_</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 06:54:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fisika Kelas XI : Gelombang Mekanik : Pembahasan dan Latihan Soal Gelombang Mekanik
+#GelombangMekanik #SoalGelombangMekanik #PembahasanGelombangMekanik #BelajarDariRumah #PembelajaranDaring https://t.co/kH3wfXokmu</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 05:00:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Musim pandemi #Covid19 begini, sebaiknya kita membawa botol minum apabila ke luar rumah ya #GenPrestasi
+Namun, jangan lupa mencucinya tiap setelah digunakan untuk melindungi dari kuman. 
+#IndiHomeStudyByIndiHome #BelajarDariRumah #dirumahaja #JumaTips #MencuciBotol https://t.co/z8OI4c9yp6</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 13:48:19 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -5416,10 +5980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E604"/>
+  <dimension ref="A1:E681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I613" sqref="I613"/>
+    <sheetView tabSelected="1" topLeftCell="A664" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I683" sqref="I683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13888,6 +14452,1084 @@
         <v>906</v>
       </c>
     </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>1.3547384899008059E+18</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C605" t="s">
+        <v>978</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>1.354722825139966E+18</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>1.354688168914633E+18</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C607" t="s">
+        <v>978</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>1.3546879888155891E+18</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C608" t="s">
+        <v>267</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>1.3546879339079229E+18</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C609" t="s">
+        <v>267</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>1.354687860562133E+18</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C610" t="s">
+        <v>267</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>1.3546878093119319E+18</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C611" t="s">
+        <v>267</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>1.354687748096086E+18</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C612" t="s">
+        <v>267</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>1.354687694979424E+18</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C613" t="s">
+        <v>267</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>1.3546822371496179E+18</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C614" t="s">
+        <v>978</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>1.3546667621558799E+18</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C615" t="s">
+        <v>26</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>1.3546461860750249E+18</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>1.3546390196577531E+18</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>1.3546098271340989E+18</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>1.3545650987617119E+18</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C619" t="s">
+        <v>5</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>1.3545473831289119E+18</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C620" t="s">
+        <v>8</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>1.3544940561606661E+18</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C621" t="s">
+        <v>11</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>1.3544232205568489E+18</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C622" t="s">
+        <v>17</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>1.354392677266014E+18</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>1.354391437933122E+18</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>1.354383651388191E+18</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C625" t="s">
+        <v>631</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>1.3542930536500349E+18</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C626" t="s">
+        <v>631</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>1.3542695012865431E+18</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>1.354211581865804E+18</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C628" t="s">
+        <v>5</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>1.3541968671820229E+18</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C629" t="s">
+        <v>8</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>1.3540970776310211E+18</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C630" t="s">
+        <v>11</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>1.3540880672216189E+18</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C631" t="s">
+        <v>978</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>1.3540515103263329E+18</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C632" t="s">
+        <v>17</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>1.3539870230617421E+18</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C633" t="s">
+        <v>267</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>1.3539792635280471E+18</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C634" t="s">
+        <v>267</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>1.353943913703166E+18</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C635" t="s">
+        <v>120</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>1.3539369295998889E+18</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C636" t="s">
+        <v>26</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>1.353915568299135E+18</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C637" t="s">
+        <v>631</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>1.3539067768028731E+18</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C638" t="s">
+        <v>8</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>1.353905087421182E+18</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C639" t="s">
+        <v>11</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>1.3539004705242109E+18</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C640" t="s">
+        <v>631</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>1.3538853724266911E+18</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C641" t="s">
+        <v>631</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>1.3538718199046961E+18</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C642" t="s">
+        <v>5</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>1.353699378213442E+18</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C643" t="s">
+        <v>978</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>1.3536711007737531E+18</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C644" t="s">
+        <v>17</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>1.3536676287456791E+18</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C645" t="s">
+        <v>26</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>1.35358208709009E+18</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C646" t="s">
+        <v>267</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>1.353581961059721E+18</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C647" t="s">
+        <v>267</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>1.3535818000654789E+18</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C648" t="s">
+        <v>267</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>1.353581446837973E+18</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C649" t="s">
+        <v>267</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>1.353581275756556E+18</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C650" t="s">
+        <v>267</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>1.3535811958047291E+18</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C651" t="s">
+        <v>267</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>1.3535811141248571E+18</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C652" t="s">
+        <v>267</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>1.3535810434047219E+18</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C653" t="s">
+        <v>267</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>1.353565941502644E+18</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C654" t="s">
+        <v>568</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>1.3535377851484119E+18</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C655" t="s">
+        <v>365</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>1.3535229823926231E+18</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C656" t="s">
+        <v>631</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>1.3535085808093389E+18</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C657" t="s">
+        <v>23</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>1.3535078858466801E+18</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C658" t="s">
+        <v>631</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>1.3534935890958989E+18</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C659" t="s">
+        <v>8</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>1.3533993554791869E+18</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C660" t="s">
+        <v>11</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>1.3532891343502011E+18</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C661" t="s">
+        <v>5</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>1.3532891291029629E+18</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C662" t="s">
+        <v>5</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>1.3532736138859231E+18</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C663" t="s">
+        <v>17</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>1.3531605953407511E+18</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C664" t="s">
+        <v>631</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>1.3529610536053271E+18</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C665" t="s">
+        <v>17</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>1.3529567504465669E+18</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C666" t="s">
+        <v>631</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>1.352949202624651E+18</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C667" t="s">
+        <v>631</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>1.35287226927043E+18</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>1.3528436245730629E+18</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C669" t="s">
+        <v>120</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>1.35261407053328E+18</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C670" t="s">
+        <v>17</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>1.3525566179974139E+18</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C671" t="s">
+        <v>631</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>1.3525490627892549E+18</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C672" t="s">
+        <v>631</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>1.3525446844852101E+18</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C673" t="s">
+        <v>270</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>1.352541512576479E+18</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C674" t="s">
+        <v>631</v>
+      </c>
+      <c r="D674" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>1.352511314774655E+18</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C675" t="s">
+        <v>631</v>
+      </c>
+      <c r="D675" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>1.3524724533778959E+18</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C676" t="s">
+        <v>267</v>
+      </c>
+      <c r="D676" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>1.3524723808917499E+18</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C677" t="s">
+        <v>267</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>1.352472289590325E+18</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C678" t="s">
+        <v>267</v>
+      </c>
+      <c r="D678" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>1.35247223462398E+18</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C679" t="s">
+        <v>267</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>1.352436378248704E+18</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C680" t="s">
+        <v>365</v>
+      </c>
+      <c r="D680" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>1.3524138991448471E+18</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C681" t="s">
+        <v>8</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1063</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
